--- a/data/interim/Fooditem_PooreNemecek.xlsx
+++ b/data/interim/Fooditem_PooreNemecek.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R523"/>
+  <dimension ref="A1:R530"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4124,7 +4124,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Sugar</t>
+          <t>Sugar from beet</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -5798,120 +5798,120 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Soybean Tofu</t>
+          <t>Coconut milk</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Tofu</t>
+          <t>Soymilk</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>11853</v>
+        <v>33318</v>
       </c>
       <c r="D87" t="n">
-        <v>2.473</v>
+        <v>0.464</v>
       </c>
       <c r="E87" t="n">
-        <v>0.681</v>
+        <v>0.128</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>0.958</v>
+        <v>0.18</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0.495</v>
+        <v>0.093</v>
       </c>
       <c r="J87" t="n">
-        <v>0.794</v>
+        <v>0.163</v>
       </c>
       <c r="K87" t="n">
-        <v>0.177</v>
+        <v>0.11</v>
       </c>
       <c r="L87" t="n">
-        <v>0.177</v>
+        <v>0.098</v>
       </c>
       <c r="M87" t="n">
         <v>0.27</v>
       </c>
       <c r="N87" t="n">
-        <v>0.00625</v>
+        <v>0.0025</v>
       </c>
       <c r="O87" t="n">
-        <v>0.00553</v>
+        <v>0.0009700000000000001</v>
       </c>
       <c r="P87" t="n">
-        <v>139</v>
+        <v>26</v>
       </c>
       <c r="Q87" t="n">
-        <v>4785</v>
+        <v>894</v>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>Poore&amp;Nemecek</t>
+          <t>PA based on AGRIBALYSE</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Soybean oil</t>
+          <t>Soybean Tofu</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Soybean Oil</t>
+          <t>Tofu</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>24148</v>
+        <v>11853</v>
       </c>
       <c r="D88" t="n">
-        <v>7.815</v>
+        <v>2.473</v>
       </c>
       <c r="E88" t="n">
-        <v>2.359</v>
+        <v>0.681</v>
       </c>
       <c r="F88" t="n">
         <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>3.096</v>
+        <v>0.958</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>1.519</v>
+        <v>0.495</v>
       </c>
       <c r="J88" t="n">
-        <v>0.311</v>
+        <v>0.794</v>
       </c>
       <c r="K88" t="n">
-        <v>0.299</v>
+        <v>0.177</v>
       </c>
       <c r="L88" t="n">
-        <v>0.849</v>
+        <v>0.177</v>
       </c>
       <c r="M88" t="n">
-        <v>0.043</v>
+        <v>0.27</v>
       </c>
       <c r="N88" t="n">
-        <v>0.0157</v>
+        <v>0.00625</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01123</v>
+        <v>0.00553</v>
       </c>
       <c r="P88" t="n">
-        <v>418</v>
+        <v>139</v>
       </c>
       <c r="Q88" t="n">
-        <v>15039</v>
+        <v>4785</v>
       </c>
       <c r="R88" t="inlineStr">
         <is>
@@ -5922,7 +5922,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Soybean, whole grain</t>
+          <t>Soybean oil</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -5984,22 +5984,22 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Palm oil</t>
+          <t>Soybean, whole grain</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Palm Oil</t>
+          <t>Soybean Oil</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>16691</v>
+        <v>24148</v>
       </c>
       <c r="D90" t="n">
-        <v>2.259</v>
+        <v>7.815</v>
       </c>
       <c r="E90" t="n">
-        <v>0.179</v>
+        <v>2.359</v>
       </c>
       <c r="F90" t="n">
         <v>0</v>
@@ -6011,31 +6011,31 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>2.107</v>
+        <v>1.519</v>
       </c>
       <c r="J90" t="n">
-        <v>1.264</v>
+        <v>0.311</v>
       </c>
       <c r="K90" t="n">
-        <v>0.208</v>
+        <v>0.299</v>
       </c>
       <c r="L90" t="n">
-        <v>0.886</v>
+        <v>0.849</v>
       </c>
       <c r="M90" t="n">
-        <v>0.044</v>
+        <v>0.043</v>
       </c>
       <c r="N90" t="n">
-        <v>0.01832</v>
+        <v>0.0157</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01089</v>
+        <v>0.01123</v>
       </c>
       <c r="P90" t="n">
-        <v>7</v>
+        <v>418</v>
       </c>
       <c r="Q90" t="n">
-        <v>37</v>
+        <v>15039</v>
       </c>
       <c r="R90" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Palm fruit</t>
+          <t>Palm oil</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -6108,58 +6108,58 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Sunflower oil</t>
+          <t>Palm fruit</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Sunflower Oil</t>
+          <t>Palm Oil</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>9554</v>
+        <v>16691</v>
       </c>
       <c r="D92" t="n">
-        <v>13.581</v>
+        <v>2.259</v>
       </c>
       <c r="E92" t="n">
-        <v>3.613</v>
+        <v>0.179</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>0.133</v>
+        <v>3.096</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>2.148</v>
+        <v>2.107</v>
       </c>
       <c r="J92" t="n">
-        <v>0.229</v>
+        <v>1.264</v>
       </c>
       <c r="K92" t="n">
-        <v>0.201</v>
+        <v>0.208</v>
       </c>
       <c r="L92" t="n">
-        <v>0.853</v>
+        <v>0.886</v>
       </c>
       <c r="M92" t="n">
-        <v>0.043</v>
+        <v>0.044</v>
       </c>
       <c r="N92" t="n">
-        <v>0.02735</v>
+        <v>0.01832</v>
       </c>
       <c r="O92" t="n">
-        <v>0.05061</v>
+        <v>0.01089</v>
       </c>
       <c r="P92" t="n">
-        <v>943</v>
+        <v>7</v>
       </c>
       <c r="Q92" t="n">
-        <v>34064</v>
+        <v>37</v>
       </c>
       <c r="R92" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Sunflower seeds</t>
+          <t>Sunflower oil</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -6232,58 +6232,58 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Canola seeds</t>
+          <t>Sunflower seeds</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Rapeseed Oil</t>
+          <t>Sunflower Oil</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>10311</v>
+        <v>9554</v>
       </c>
       <c r="D94" t="n">
-        <v>8.458</v>
+        <v>13.581</v>
       </c>
       <c r="E94" t="n">
-        <v>2.09</v>
+        <v>3.613</v>
       </c>
       <c r="F94" t="n">
         <v>0</v>
       </c>
       <c r="G94" t="n">
-        <v>0.212</v>
+        <v>0.133</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>2.343</v>
+        <v>2.148</v>
       </c>
       <c r="J94" t="n">
-        <v>0.193</v>
+        <v>0.229</v>
       </c>
       <c r="K94" t="n">
-        <v>0.19</v>
+        <v>0.201</v>
       </c>
       <c r="L94" t="n">
-        <v>0.844</v>
+        <v>0.853</v>
       </c>
       <c r="M94" t="n">
-        <v>0.046</v>
+        <v>0.043</v>
       </c>
       <c r="N94" t="n">
-        <v>0.0288</v>
+        <v>0.02735</v>
       </c>
       <c r="O94" t="n">
-        <v>0.01939</v>
+        <v>0.05061</v>
       </c>
       <c r="P94" t="n">
-        <v>234</v>
+        <v>943</v>
       </c>
       <c r="Q94" t="n">
-        <v>10412</v>
+        <v>34064</v>
       </c>
       <c r="R94" t="inlineStr">
         <is>
@@ -6294,7 +6294,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Canola oil</t>
+          <t>Canola seeds</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -6356,7 +6356,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Rapeseed</t>
+          <t>Canola oil</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -6418,7 +6418,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Rapeseed oil</t>
+          <t>Rapeseed</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -6480,58 +6480,58 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Extra virgin olive oil</t>
+          <t>Rapeseed oil</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Olive Oil</t>
+          <t>Rapeseed Oil</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>2997</v>
+        <v>10311</v>
       </c>
       <c r="D98" t="n">
-        <v>27.213</v>
+        <v>8.458</v>
       </c>
       <c r="E98" t="n">
-        <v>1.089</v>
+        <v>2.09</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.377</v>
+        <v>0.212</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>4.272</v>
+        <v>2.343</v>
       </c>
       <c r="J98" t="n">
-        <v>0.66</v>
+        <v>0.193</v>
       </c>
       <c r="K98" t="n">
-        <v>0.482</v>
+        <v>0.19</v>
       </c>
       <c r="L98" t="n">
-        <v>0.861</v>
+        <v>0.844</v>
       </c>
       <c r="M98" t="n">
         <v>0.046</v>
       </c>
       <c r="N98" t="n">
-        <v>0.04108</v>
+        <v>0.0288</v>
       </c>
       <c r="O98" t="n">
-        <v>0.04024</v>
+        <v>0.01939</v>
       </c>
       <c r="P98" t="n">
-        <v>2322</v>
+        <v>234</v>
       </c>
       <c r="Q98" t="n">
-        <v>192719</v>
+        <v>10412</v>
       </c>
       <c r="R98" t="inlineStr">
         <is>
@@ -6542,7 +6542,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Extra virgin olive oil ("GranFruttato")</t>
+          <t>Extra virgin olive oil</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -6604,7 +6604,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Olive oil</t>
+          <t>Extra virgin olive oil ("GranFruttato")</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -6666,7 +6666,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Olives</t>
+          <t>Olive oil</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -6728,7 +6728,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Virgin olive oil</t>
+          <t>Olives</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -6790,58 +6790,58 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Tomatoes</t>
+          <t>Virgin olive oil</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Tomatoes</t>
+          <t>Olive Oil</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>148957</v>
+        <v>2997</v>
       </c>
       <c r="D103" t="n">
-        <v>0.328</v>
+        <v>27.213</v>
       </c>
       <c r="E103" t="n">
-        <v>0.182</v>
+        <v>1.089</v>
       </c>
       <c r="F103" t="n">
         <v>0</v>
       </c>
       <c r="G103" t="n">
-        <v>0.372</v>
+        <v>-0.377</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0.704</v>
+        <v>4.272</v>
       </c>
       <c r="J103" t="n">
-        <v>0.012</v>
+        <v>0.66</v>
       </c>
       <c r="K103" t="n">
-        <v>0.177</v>
+        <v>0.482</v>
       </c>
       <c r="L103" t="n">
-        <v>0.145</v>
+        <v>0.861</v>
       </c>
       <c r="M103" t="n">
-        <v>0.017</v>
+        <v>0.046</v>
       </c>
       <c r="N103" t="n">
-        <v>0.01143</v>
+        <v>0.04108</v>
       </c>
       <c r="O103" t="n">
-        <v>0.00481</v>
+        <v>0.04024</v>
       </c>
       <c r="P103" t="n">
-        <v>235</v>
+        <v>2322</v>
       </c>
       <c r="Q103" t="n">
-        <v>4013</v>
+        <v>192719</v>
       </c>
       <c r="R103" t="inlineStr">
         <is>
@@ -6852,7 +6852,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Tomatoes (baby plum)</t>
+          <t>Tomatoes</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -6914,7 +6914,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Tomatoes (loose classic)</t>
+          <t>Tomatoes (baby plum)</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -6976,7 +6976,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Tomatoes (round/globe)</t>
+          <t>Tomatoes (loose classic)</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -7038,7 +7038,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Tomatoes (vine)</t>
+          <t>Tomatoes (round/globe)</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -7100,58 +7100,58 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Onions</t>
+          <t>Tomatoes (vine)</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Onions &amp; Leeks</t>
+          <t>Tomatoes</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>77927</v>
+        <v>148957</v>
       </c>
       <c r="D108" t="n">
-        <v>0.219</v>
+        <v>0.328</v>
       </c>
       <c r="E108" t="n">
-        <v>0.066</v>
+        <v>0.182</v>
       </c>
       <c r="F108" t="n">
         <v>0</v>
       </c>
       <c r="G108" t="n">
-        <v>0.005</v>
+        <v>0.372</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0.211</v>
+        <v>0.704</v>
       </c>
       <c r="J108" t="n">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="K108" t="n">
-        <v>0.095</v>
+        <v>0.177</v>
       </c>
       <c r="L108" t="n">
-        <v>0.045</v>
+        <v>0.145</v>
       </c>
       <c r="M108" t="n">
-        <v>0.039</v>
+        <v>0.017</v>
       </c>
       <c r="N108" t="n">
-        <v>0.00304</v>
+        <v>0.01143</v>
       </c>
       <c r="O108" t="n">
-        <v>0.0023</v>
+        <v>0.00481</v>
       </c>
       <c r="P108" t="n">
-        <v>11</v>
+        <v>235</v>
       </c>
       <c r="Q108" t="n">
-        <v>746</v>
+        <v>4013</v>
       </c>
       <c r="R108" t="inlineStr">
         <is>
@@ -7162,7 +7162,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Leeks</t>
+          <t>Onions</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -7224,7 +7224,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Spring onions</t>
+          <t>Leeks</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -7286,40 +7286,40 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Carrots</t>
+          <t>Spring onions</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Root Vegetables</t>
+          <t>Onions &amp; Leeks</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>35154</v>
+        <v>77927</v>
       </c>
       <c r="D111" t="n">
-        <v>0.231</v>
+        <v>0.219</v>
       </c>
       <c r="E111" t="n">
-        <v>0.032</v>
+        <v>0.066</v>
       </c>
       <c r="F111" t="n">
         <v>0</v>
       </c>
       <c r="G111" t="n">
-        <v>0.013</v>
+        <v>0.005</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>0.154</v>
+        <v>0.211</v>
       </c>
       <c r="J111" t="n">
         <v>0</v>
       </c>
       <c r="K111" t="n">
-        <v>0.114</v>
+        <v>0.095</v>
       </c>
       <c r="L111" t="n">
         <v>0.045</v>
@@ -7328,16 +7328,16 @@
         <v>0.039</v>
       </c>
       <c r="N111" t="n">
-        <v>0.00253</v>
+        <v>0.00304</v>
       </c>
       <c r="O111" t="n">
-        <v>0.00132</v>
+        <v>0.0023</v>
       </c>
       <c r="P111" t="n">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="Q111" t="n">
-        <v>776</v>
+        <v>746</v>
       </c>
       <c r="R111" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Celeriac</t>
+          <t>Carrots</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -7410,7 +7410,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Parsnip</t>
+          <t>Celeriac</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -7472,7 +7472,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Swede</t>
+          <t>Parsnip</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -7534,58 +7534,58 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Broccoli</t>
+          <t>Swede</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Brassicas</t>
+          <t>Root Vegetables</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>77045</v>
+        <v>35154</v>
       </c>
       <c r="D115" t="n">
-        <v>0.303</v>
+        <v>0.231</v>
       </c>
       <c r="E115" t="n">
-        <v>0.149</v>
+        <v>0.032</v>
       </c>
       <c r="F115" t="n">
         <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>0.002</v>
+        <v>0.013</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0.278</v>
+        <v>0.154</v>
       </c>
       <c r="J115" t="n">
         <v>0</v>
       </c>
       <c r="K115" t="n">
-        <v>0.095</v>
+        <v>0.114</v>
       </c>
       <c r="L115" t="n">
         <v>0.045</v>
       </c>
       <c r="M115" t="n">
-        <v>0.017</v>
+        <v>0.039</v>
       </c>
       <c r="N115" t="n">
-        <v>0.00686</v>
+        <v>0.00253</v>
       </c>
       <c r="O115" t="n">
-        <v>0.00414</v>
+        <v>0.00132</v>
       </c>
       <c r="P115" t="n">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="Q115" t="n">
-        <v>6878</v>
+        <v>776</v>
       </c>
       <c r="R115" t="inlineStr">
         <is>
@@ -7596,7 +7596,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Cabbage</t>
+          <t>Broccoli</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -7658,7 +7658,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Cauliflower</t>
+          <t>Cabbage</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -7720,7 +7720,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Chinese cabbage</t>
+          <t>Cauliflower</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -7782,7 +7782,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Pakchoi</t>
+          <t>Chinese cabbage</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -7844,7 +7844,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Savoy cabbage</t>
+          <t>Pakchoi</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -7906,58 +7906,58 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Artichokes</t>
+          <t>Savoy cabbage</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Other Vegetables</t>
+          <t>Brassicas</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>654375</v>
+        <v>77045</v>
       </c>
       <c r="D121" t="n">
-        <v>0.223</v>
+        <v>0.303</v>
       </c>
       <c r="E121" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.149</v>
       </c>
       <c r="F121" t="n">
         <v>0</v>
       </c>
       <c r="G121" t="n">
-        <v>0.001</v>
+        <v>0.002</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>0.174</v>
+        <v>0.278</v>
       </c>
       <c r="J121" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="K121" t="n">
-        <v>0.164</v>
+        <v>0.095</v>
       </c>
       <c r="L121" t="n">
-        <v>0.041</v>
+        <v>0.045</v>
       </c>
       <c r="M121" t="n">
-        <v>0.015</v>
+        <v>0.017</v>
       </c>
       <c r="N121" t="n">
-        <v>0.00531</v>
+        <v>0.00686</v>
       </c>
       <c r="O121" t="n">
-        <v>0.00186</v>
+        <v>0.00414</v>
       </c>
       <c r="P121" t="n">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="Q121" t="n">
-        <v>3958</v>
+        <v>6878</v>
       </c>
       <c r="R121" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Chicory</t>
+          <t>Artichokes</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -8030,7 +8030,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Courgette</t>
+          <t>Chicory</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -8092,7 +8092,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Cucumber</t>
+          <t>Courgette</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -8154,7 +8154,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Endive</t>
+          <t>Cucumber</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -8216,7 +8216,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Sim beans</t>
+          <t>Endive</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -8278,7 +8278,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>French beans</t>
+          <t>Rutabaga</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -8333,14 +8333,14 @@
       </c>
       <c r="R127" t="inlineStr">
         <is>
-          <t>Poore&amp;Nemecek</t>
+          <t>PA based on AGRIBALYSE</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Green beans</t>
+          <t>Sim beans</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -8402,7 +8402,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Hokkaido pumpkins</t>
+          <t>French beans</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -8464,7 +8464,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Iceberg lettuce</t>
+          <t>Green beans</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -8526,7 +8526,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Lambs lettuce</t>
+          <t>Hokkaido pumpkins</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -8588,7 +8588,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Lettuce</t>
+          <t>Iceberg lettuce</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -8650,7 +8650,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Peas</t>
+          <t>Lambs lettuce</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -8712,7 +8712,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Pumpkins</t>
+          <t>Lettuce</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -8774,7 +8774,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Asparagus</t>
+          <t>Pumpkins</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -8829,14 +8829,14 @@
       </c>
       <c r="R135" t="inlineStr">
         <is>
-          <t>PA based on AGRIBALYSE</t>
+          <t>Poore&amp;Nemecek</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Beetroot</t>
+          <t>Asparagus</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -8898,7 +8898,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Brussels sprout</t>
+          <t>Beetroot</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -8960,7 +8960,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Cardoon</t>
+          <t>Brussels sprout</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -9022,7 +9022,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Chilli pepper</t>
+          <t>Cardoon</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -9084,7 +9084,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Zucchini</t>
+          <t>Chilli pepper</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -9146,7 +9146,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Plantain banana</t>
+          <t>Zucchini</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -9208,7 +9208,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Spinach</t>
+          <t>Plantain banana</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -9270,7 +9270,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Squash</t>
+          <t>Spinach</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -9332,7 +9332,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Sweet corn</t>
+          <t>Squash</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -9394,7 +9394,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Sweet pepper</t>
+          <t>Sweet corn</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -9456,131 +9456,131 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Blood oranges</t>
+          <t>Sweet pepper</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Citrus Fruit</t>
+          <t>Other Vegetables</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>127923</v>
+        <v>654375</v>
       </c>
       <c r="D146" t="n">
-        <v>0.637</v>
+        <v>0.223</v>
       </c>
       <c r="E146" t="n">
-        <v>0.038</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="F146" t="n">
         <v>0</v>
       </c>
       <c r="G146" t="n">
-        <v>-0.146</v>
+        <v>0.001</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>0.307</v>
+        <v>0.174</v>
       </c>
       <c r="J146" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="K146" t="n">
-        <v>0.094</v>
+        <v>0.164</v>
       </c>
       <c r="L146" t="n">
-        <v>0.045</v>
+        <v>0.041</v>
       </c>
       <c r="M146" t="n">
-        <v>0.017</v>
+        <v>0.015</v>
       </c>
       <c r="N146" t="n">
-        <v>0.00306</v>
+        <v>0.00531</v>
       </c>
       <c r="O146" t="n">
-        <v>0.00157</v>
+        <v>0.00186</v>
       </c>
       <c r="P146" t="n">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="Q146" t="n">
-        <v>3678</v>
+        <v>3958</v>
       </c>
       <c r="R146" t="inlineStr">
         <is>
-          <t>Poore&amp;Nemecek</t>
+          <t>PA based on AGRIBALYSE</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Chinese oranges</t>
+          <t>Mushrooms</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Citrus Fruit</t>
+          <t>Other Vegetables</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>127923</v>
+        <v>654375</v>
       </c>
       <c r="D147" t="n">
-        <v>0.637</v>
+        <v>0.223</v>
       </c>
       <c r="E147" t="n">
-        <v>0.038</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="F147" t="n">
         <v>0</v>
       </c>
       <c r="G147" t="n">
-        <v>-0.146</v>
+        <v>0.001</v>
       </c>
       <c r="H147" t="n">
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>0.307</v>
+        <v>0.174</v>
       </c>
       <c r="J147" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="K147" t="n">
-        <v>0.094</v>
+        <v>0.164</v>
       </c>
       <c r="L147" t="n">
-        <v>0.045</v>
+        <v>0.041</v>
       </c>
       <c r="M147" t="n">
-        <v>0.017</v>
+        <v>0.015</v>
       </c>
       <c r="N147" t="n">
-        <v>0.00306</v>
+        <v>0.00531</v>
       </c>
       <c r="O147" t="n">
-        <v>0.00157</v>
+        <v>0.00186</v>
       </c>
       <c r="P147" t="n">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="Q147" t="n">
-        <v>3678</v>
+        <v>3958</v>
       </c>
       <c r="R147" t="inlineStr">
         <is>
-          <t>Poore&amp;Nemecek</t>
+          <t>PA based on SHARPID</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Citrus</t>
+          <t>Blood oranges</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -9642,7 +9642,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Clementine</t>
+          <t>Chinese oranges</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -9704,7 +9704,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Lemons</t>
+          <t>Citrus</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -9766,7 +9766,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Mandarin</t>
+          <t>Clementine</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -9828,7 +9828,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Oranges</t>
+          <t>Lemons</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -9890,7 +9890,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Tangerine</t>
+          <t>Mandarin</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -9952,58 +9952,58 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Bananas</t>
+          <t>Oranges</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Bananas</t>
+          <t>Citrus Fruit</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>128971</v>
+        <v>127923</v>
       </c>
       <c r="D154" t="n">
-        <v>1.23</v>
+        <v>0.637</v>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
+        <v>0.038</v>
       </c>
       <c r="F154" t="n">
         <v>0</v>
       </c>
       <c r="G154" t="n">
-        <v>-0.025</v>
+        <v>-0.146</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
       </c>
       <c r="I154" t="n">
-        <v>0.266</v>
+        <v>0.307</v>
       </c>
       <c r="J154" t="n">
-        <v>0.059</v>
+        <v>0</v>
       </c>
       <c r="K154" t="n">
-        <v>0.292</v>
+        <v>0.094</v>
       </c>
       <c r="L154" t="n">
-        <v>0.065</v>
+        <v>0.045</v>
       </c>
       <c r="M154" t="n">
-        <v>0.021</v>
+        <v>0.017</v>
       </c>
       <c r="N154" t="n">
-        <v>0.00469</v>
+        <v>0.00306</v>
       </c>
       <c r="O154" t="n">
-        <v>0.00225</v>
+        <v>0.00157</v>
       </c>
       <c r="P154" t="n">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="Q154" t="n">
-        <v>491</v>
+        <v>3678</v>
       </c>
       <c r="R154" t="inlineStr">
         <is>
@@ -10014,58 +10014,58 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Apples</t>
+          <t>Tangerine</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Apples</t>
+          <t>Citrus Fruit</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>75781</v>
+        <v>127923</v>
       </c>
       <c r="D155" t="n">
-        <v>0.465</v>
+        <v>0.637</v>
       </c>
       <c r="E155" t="n">
-        <v>0.028</v>
+        <v>0.038</v>
       </c>
       <c r="F155" t="n">
         <v>0</v>
       </c>
       <c r="G155" t="n">
-        <v>-0.029</v>
+        <v>-0.146</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
       </c>
       <c r="I155" t="n">
-        <v>0.225</v>
+        <v>0.307</v>
       </c>
       <c r="J155" t="n">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="K155" t="n">
-        <v>0.096</v>
+        <v>0.094</v>
       </c>
       <c r="L155" t="n">
-        <v>0.044</v>
+        <v>0.045</v>
       </c>
       <c r="M155" t="n">
         <v>0.017</v>
       </c>
       <c r="N155" t="n">
-        <v>0.00291</v>
+        <v>0.00306</v>
       </c>
       <c r="O155" t="n">
-        <v>0.00115</v>
+        <v>0.00157</v>
       </c>
       <c r="P155" t="n">
-        <v>140</v>
+        <v>65</v>
       </c>
       <c r="Q155" t="n">
-        <v>10007</v>
+        <v>3678</v>
       </c>
       <c r="R155" t="inlineStr">
         <is>
@@ -10076,58 +10076,58 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Blueberries</t>
+          <t>Bananas</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Berries &amp; Grapes</t>
+          <t>Bananas</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>67079</v>
+        <v>128971</v>
       </c>
       <c r="D156" t="n">
-        <v>0.741</v>
+        <v>1.23</v>
       </c>
       <c r="E156" t="n">
-        <v>0.899</v>
+        <v>0</v>
       </c>
       <c r="F156" t="n">
         <v>0</v>
       </c>
       <c r="G156" t="n">
-        <v>0.025</v>
+        <v>-0.025</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
       </c>
       <c r="I156" t="n">
-        <v>0.722</v>
+        <v>0.266</v>
       </c>
       <c r="J156" t="n">
-        <v>0</v>
+        <v>0.059</v>
       </c>
       <c r="K156" t="n">
-        <v>0.238</v>
+        <v>0.292</v>
       </c>
       <c r="L156" t="n">
-        <v>0.212</v>
+        <v>0.065</v>
       </c>
       <c r="M156" t="n">
-        <v>0.017</v>
+        <v>0.021</v>
       </c>
       <c r="N156" t="n">
-        <v>0.009889999999999999</v>
+        <v>0.00469</v>
       </c>
       <c r="O156" t="n">
-        <v>0.00531</v>
+        <v>0.00225</v>
       </c>
       <c r="P156" t="n">
-        <v>292</v>
+        <v>86</v>
       </c>
       <c r="Q156" t="n">
-        <v>15180</v>
+        <v>491</v>
       </c>
       <c r="R156" t="inlineStr">
         <is>
@@ -10138,58 +10138,58 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Raspberries</t>
+          <t>Apples</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Berries &amp; Grapes</t>
+          <t>Apples</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>67079</v>
+        <v>75781</v>
       </c>
       <c r="D157" t="n">
-        <v>0.741</v>
+        <v>0.465</v>
       </c>
       <c r="E157" t="n">
-        <v>0.899</v>
+        <v>0.028</v>
       </c>
       <c r="F157" t="n">
         <v>0</v>
       </c>
       <c r="G157" t="n">
-        <v>0.025</v>
+        <v>-0.029</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
       </c>
       <c r="I157" t="n">
-        <v>0.722</v>
+        <v>0.225</v>
       </c>
       <c r="J157" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="K157" t="n">
-        <v>0.238</v>
+        <v>0.096</v>
       </c>
       <c r="L157" t="n">
-        <v>0.212</v>
+        <v>0.044</v>
       </c>
       <c r="M157" t="n">
         <v>0.017</v>
       </c>
       <c r="N157" t="n">
-        <v>0.009889999999999999</v>
+        <v>0.00291</v>
       </c>
       <c r="O157" t="n">
-        <v>0.00531</v>
+        <v>0.00115</v>
       </c>
       <c r="P157" t="n">
-        <v>292</v>
+        <v>140</v>
       </c>
       <c r="Q157" t="n">
-        <v>15180</v>
+        <v>10007</v>
       </c>
       <c r="R157" t="inlineStr">
         <is>
@@ -10200,7 +10200,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Strawberries</t>
+          <t>Blueberries</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -10262,7 +10262,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Black currants</t>
+          <t>Raspberries</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -10317,14 +10317,14 @@
       </c>
       <c r="R159" t="inlineStr">
         <is>
-          <t>PA based on AGRIBALYSE</t>
+          <t>Poore&amp;Nemecek</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Blackberries</t>
+          <t>Strawberries</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -10379,14 +10379,14 @@
       </c>
       <c r="R160" t="inlineStr">
         <is>
-          <t>PA based on AGRIBALYSE</t>
+          <t>Poore&amp;Nemecek</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Cranberries</t>
+          <t>Black currants</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -10448,7 +10448,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Gooseberry</t>
+          <t>Blackberries</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -10510,7 +10510,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Raisin</t>
+          <t>Cranberries</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -10572,131 +10572,131 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Red wine</t>
+          <t>Gooseberry</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Wine</t>
+          <t>Berries &amp; Grapes</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>26013</v>
+        <v>67079</v>
       </c>
       <c r="D164" t="n">
-        <v>1.553</v>
+        <v>0.741</v>
       </c>
       <c r="E164" t="n">
-        <v>0</v>
+        <v>0.899</v>
       </c>
       <c r="F164" t="n">
         <v>0</v>
       </c>
       <c r="G164" t="n">
-        <v>-0.061</v>
+        <v>0.025</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>0.626</v>
+        <v>0.722</v>
       </c>
       <c r="J164" t="n">
-        <v>0.139</v>
+        <v>0</v>
       </c>
       <c r="K164" t="n">
-        <v>0.093</v>
+        <v>0.238</v>
       </c>
       <c r="L164" t="n">
-        <v>0.749</v>
+        <v>0.212</v>
       </c>
       <c r="M164" t="n">
-        <v>0.039</v>
+        <v>0.017</v>
       </c>
       <c r="N164" t="n">
-        <v>0.01128</v>
+        <v>0.009889999999999999</v>
       </c>
       <c r="O164" t="n">
-        <v>0.00402</v>
+        <v>0.00531</v>
       </c>
       <c r="P164" t="n">
-        <v>68</v>
+        <v>292</v>
       </c>
       <c r="Q164" t="n">
-        <v>1003</v>
+        <v>15180</v>
       </c>
       <c r="R164" t="inlineStr">
         <is>
-          <t>Poore&amp;Nemecek</t>
+          <t>PA based on AGRIBALYSE</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>White wine</t>
+          <t>Raisin</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Wine</t>
+          <t>Berries &amp; Grapes</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>26013</v>
+        <v>67079</v>
       </c>
       <c r="D165" t="n">
-        <v>1.553</v>
+        <v>0.741</v>
       </c>
       <c r="E165" t="n">
-        <v>0</v>
+        <v>0.899</v>
       </c>
       <c r="F165" t="n">
         <v>0</v>
       </c>
       <c r="G165" t="n">
-        <v>-0.061</v>
+        <v>0.025</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>0.626</v>
+        <v>0.722</v>
       </c>
       <c r="J165" t="n">
-        <v>0.139</v>
+        <v>0</v>
       </c>
       <c r="K165" t="n">
-        <v>0.093</v>
+        <v>0.238</v>
       </c>
       <c r="L165" t="n">
-        <v>0.749</v>
+        <v>0.212</v>
       </c>
       <c r="M165" t="n">
-        <v>0.039</v>
+        <v>0.017</v>
       </c>
       <c r="N165" t="n">
-        <v>0.01128</v>
+        <v>0.009889999999999999</v>
       </c>
       <c r="O165" t="n">
-        <v>0.00402</v>
+        <v>0.00531</v>
       </c>
       <c r="P165" t="n">
-        <v>68</v>
+        <v>292</v>
       </c>
       <c r="Q165" t="n">
-        <v>1003</v>
+        <v>15180</v>
       </c>
       <c r="R165" t="inlineStr">
         <is>
-          <t>Poore&amp;Nemecek</t>
+          <t>PA based on AGRIBALYSE</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Wine</t>
+          <t>Red wine</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -10758,7 +10758,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Wine grapes</t>
+          <t>White wine</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -10820,58 +10820,58 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Avocado</t>
+          <t>Wine</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Other Fruit</t>
+          <t>Wine</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>210650</v>
+        <v>26013</v>
       </c>
       <c r="D168" t="n">
-        <v>0.465</v>
+        <v>1.553</v>
       </c>
       <c r="E168" t="n">
-        <v>0.145</v>
+        <v>0</v>
       </c>
       <c r="F168" t="n">
         <v>0</v>
       </c>
       <c r="G168" t="n">
-        <v>0.126</v>
+        <v>-0.061</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>0.369</v>
+        <v>0.626</v>
       </c>
       <c r="J168" t="n">
-        <v>0.015</v>
+        <v>0.139</v>
       </c>
       <c r="K168" t="n">
-        <v>0.182</v>
+        <v>0.093</v>
       </c>
       <c r="L168" t="n">
-        <v>0.042</v>
+        <v>0.749</v>
       </c>
       <c r="M168" t="n">
-        <v>0.016</v>
+        <v>0.039</v>
       </c>
       <c r="N168" t="n">
-        <v>0.00438</v>
+        <v>0.01128</v>
       </c>
       <c r="O168" t="n">
-        <v>0.00179</v>
+        <v>0.00402</v>
       </c>
       <c r="P168" t="n">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="Q168" t="n">
-        <v>7771</v>
+        <v>1003</v>
       </c>
       <c r="R168" t="inlineStr">
         <is>
@@ -10882,58 +10882,58 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Canary melon</t>
+          <t>Wine grapes</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Other Fruit</t>
+          <t>Wine</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>210650</v>
+        <v>26013</v>
       </c>
       <c r="D169" t="n">
-        <v>0.465</v>
+        <v>1.553</v>
       </c>
       <c r="E169" t="n">
-        <v>0.145</v>
+        <v>0</v>
       </c>
       <c r="F169" t="n">
         <v>0</v>
       </c>
       <c r="G169" t="n">
-        <v>0.126</v>
+        <v>-0.061</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>0.369</v>
+        <v>0.626</v>
       </c>
       <c r="J169" t="n">
-        <v>0.015</v>
+        <v>0.139</v>
       </c>
       <c r="K169" t="n">
-        <v>0.182</v>
+        <v>0.093</v>
       </c>
       <c r="L169" t="n">
-        <v>0.042</v>
+        <v>0.749</v>
       </c>
       <c r="M169" t="n">
-        <v>0.016</v>
+        <v>0.039</v>
       </c>
       <c r="N169" t="n">
-        <v>0.00438</v>
+        <v>0.01128</v>
       </c>
       <c r="O169" t="n">
-        <v>0.00179</v>
+        <v>0.00402</v>
       </c>
       <c r="P169" t="n">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="Q169" t="n">
-        <v>7771</v>
+        <v>1003</v>
       </c>
       <c r="R169" t="inlineStr">
         <is>
@@ -10944,7 +10944,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Chinese pear</t>
+          <t>Avocado</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
@@ -11006,7 +11006,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Kiwi</t>
+          <t>Canary melon</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
@@ -11068,7 +11068,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Melon</t>
+          <t>Chinese pear</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
@@ -11130,7 +11130,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Nectarines</t>
+          <t>Kiwi</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
@@ -11192,7 +11192,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Apricot</t>
+          <t>Melon</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
@@ -11247,14 +11247,14 @@
       </c>
       <c r="R174" t="inlineStr">
         <is>
-          <t>PA based on AGRIBALYSE</t>
+          <t>Poore&amp;Nemecek</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Peaches</t>
+          <t>Nectarines</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -11316,7 +11316,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Pears</t>
+          <t>Apricot</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
@@ -11371,14 +11371,14 @@
       </c>
       <c r="R176" t="inlineStr">
         <is>
-          <t>Poore&amp;Nemecek</t>
+          <t>PA based on AGRIBALYSE</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Pineapples</t>
+          <t>Peaches</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
@@ -11440,7 +11440,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Sweet cherries</t>
+          <t>Pears</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
@@ -11502,7 +11502,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Watermelon</t>
+          <t>Pineapples</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
@@ -11564,7 +11564,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Carambola</t>
+          <t>Sweet cherries</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
@@ -11619,14 +11619,14 @@
       </c>
       <c r="R180" t="inlineStr">
         <is>
-          <t>PA based on AGRIBALYSE</t>
+          <t>Poore&amp;Nemecek</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Fig</t>
+          <t>Watermelon</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
@@ -11681,14 +11681,14 @@
       </c>
       <c r="R181" t="inlineStr">
         <is>
-          <t>PA based on AGRIBALYSE</t>
+          <t>Poore&amp;Nemecek</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Guava</t>
+          <t>Carambola</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
@@ -11750,7 +11750,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Lychee</t>
+          <t>Fig</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
@@ -11812,7 +11812,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Mango</t>
+          <t>Guava</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
@@ -11874,7 +11874,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Papaya</t>
+          <t>Lychee</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
@@ -11936,7 +11936,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Passion fruit</t>
+          <t>Mango</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
@@ -11998,7 +11998,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Pomegranate</t>
+          <t>Papaya</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
@@ -12060,7 +12060,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Tamarind</t>
+          <t>Passion fruit</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
@@ -12122,120 +12122,120 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Coffee beans</t>
+          <t>Pomegranate</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Other Fruit</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>7778</v>
+        <v>210650</v>
       </c>
       <c r="D189" t="n">
-        <v>10.683</v>
+        <v>0.465</v>
       </c>
       <c r="E189" t="n">
-        <v>1.038</v>
+        <v>0.145</v>
       </c>
       <c r="F189" t="n">
         <v>0</v>
       </c>
       <c r="G189" t="n">
-        <v>3.688</v>
+        <v>0.126</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>10.386</v>
+        <v>0.369</v>
       </c>
       <c r="J189" t="n">
-        <v>0.592</v>
+        <v>0.015</v>
       </c>
       <c r="K189" t="n">
-        <v>0.13</v>
+        <v>0.182</v>
       </c>
       <c r="L189" t="n">
-        <v>1.63</v>
+        <v>0.042</v>
       </c>
       <c r="M189" t="n">
-        <v>0.051</v>
+        <v>0.016</v>
       </c>
       <c r="N189" t="n">
-        <v>0.04608</v>
+        <v>0.00438</v>
       </c>
       <c r="O189" t="n">
-        <v>0.0602</v>
+        <v>0.00179</v>
       </c>
       <c r="P189" t="n">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="Q189" t="n">
-        <v>182</v>
+        <v>7771</v>
       </c>
       <c r="R189" t="inlineStr">
         <is>
-          <t>Poore&amp;Nemecek</t>
+          <t>PA based on AGRIBALYSE</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Tamarind</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Coffee</t>
+          <t>Other Fruit</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>7778</v>
+        <v>210650</v>
       </c>
       <c r="D190" t="n">
-        <v>10.683</v>
+        <v>0.465</v>
       </c>
       <c r="E190" t="n">
-        <v>1.038</v>
+        <v>0.145</v>
       </c>
       <c r="F190" t="n">
         <v>0</v>
       </c>
       <c r="G190" t="n">
-        <v>3.688</v>
+        <v>0.126</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>10.386</v>
+        <v>0.369</v>
       </c>
       <c r="J190" t="n">
-        <v>0.592</v>
+        <v>0.015</v>
       </c>
       <c r="K190" t="n">
-        <v>0.13</v>
+        <v>0.182</v>
       </c>
       <c r="L190" t="n">
-        <v>1.63</v>
+        <v>0.042</v>
       </c>
       <c r="M190" t="n">
-        <v>0.051</v>
+        <v>0.016</v>
       </c>
       <c r="N190" t="n">
-        <v>0.04608</v>
+        <v>0.00438</v>
       </c>
       <c r="O190" t="n">
-        <v>0.0602</v>
+        <v>0.00179</v>
       </c>
       <c r="P190" t="n">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="Q190" t="n">
-        <v>182</v>
+        <v>7771</v>
       </c>
       <c r="R190" t="inlineStr">
         <is>
@@ -12246,58 +12246,58 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Chocolate</t>
+          <t>Coffee beans</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Dark Chocolate</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>4416</v>
+        <v>7778</v>
       </c>
       <c r="D191" t="n">
-        <v>18.634</v>
+        <v>10.683</v>
       </c>
       <c r="E191" t="n">
-        <v>5.059</v>
+        <v>1.038</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
       </c>
       <c r="G191" t="n">
-        <v>14.308</v>
+        <v>3.688</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>3.706</v>
+        <v>10.386</v>
       </c>
       <c r="J191" t="n">
-        <v>0.185</v>
+        <v>0.592</v>
       </c>
       <c r="K191" t="n">
-        <v>0.061</v>
+        <v>0.13</v>
       </c>
       <c r="L191" t="n">
-        <v>0.4</v>
+        <v>1.63</v>
       </c>
       <c r="M191" t="n">
-        <v>0.021</v>
+        <v>0.051</v>
       </c>
       <c r="N191" t="n">
-        <v>0.01659</v>
+        <v>0.04608</v>
       </c>
       <c r="O191" t="n">
-        <v>0.03061</v>
+        <v>0.0602</v>
       </c>
       <c r="P191" t="n">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="Q191" t="n">
-        <v>1097</v>
+        <v>182</v>
       </c>
       <c r="R191" t="inlineStr">
         <is>
@@ -12308,120 +12308,120 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Cocoa</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Dark Chocolate</t>
+          <t>Coffee</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>4416</v>
+        <v>7778</v>
       </c>
       <c r="D192" t="n">
-        <v>18.634</v>
+        <v>10.683</v>
       </c>
       <c r="E192" t="n">
-        <v>5.059</v>
+        <v>1.038</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
       </c>
       <c r="G192" t="n">
-        <v>14.308</v>
+        <v>3.688</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>3.706</v>
+        <v>10.386</v>
       </c>
       <c r="J192" t="n">
-        <v>0.185</v>
+        <v>0.592</v>
       </c>
       <c r="K192" t="n">
-        <v>0.061</v>
+        <v>0.13</v>
       </c>
       <c r="L192" t="n">
-        <v>0.4</v>
+        <v>1.63</v>
       </c>
       <c r="M192" t="n">
-        <v>0.021</v>
+        <v>0.051</v>
       </c>
       <c r="N192" t="n">
-        <v>0.01659</v>
+        <v>0.04608</v>
       </c>
       <c r="O192" t="n">
-        <v>0.03061</v>
+        <v>0.0602</v>
       </c>
       <c r="P192" t="n">
-        <v>209</v>
+        <v>14</v>
       </c>
       <c r="Q192" t="n">
-        <v>1097</v>
+        <v>182</v>
       </c>
       <c r="R192" t="inlineStr">
         <is>
-          <t>Poore&amp;Nemecek</t>
+          <t>PA based on AGRIBALYSE</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Beef</t>
+          <t>Chocolate</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Bovine Meat (beef herd)</t>
+          <t>Dark Chocolate</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>40571</v>
+        <v>4416</v>
       </c>
       <c r="D193" t="n">
-        <v>20.507</v>
+        <v>18.634</v>
       </c>
       <c r="E193" t="n">
-        <v>5.067</v>
+        <v>5.059</v>
       </c>
       <c r="F193" t="n">
-        <v>168.092</v>
+        <v>0</v>
       </c>
       <c r="G193" t="n">
-        <v>16.278</v>
+        <v>14.308</v>
       </c>
       <c r="H193" t="n">
-        <v>1.878</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>39.388</v>
+        <v>3.706</v>
       </c>
       <c r="J193" t="n">
-        <v>1.269</v>
+        <v>0.185</v>
       </c>
       <c r="K193" t="n">
-        <v>0.346</v>
+        <v>0.061</v>
       </c>
       <c r="L193" t="n">
-        <v>0.247</v>
+        <v>0.4</v>
       </c>
       <c r="M193" t="n">
-        <v>0.164</v>
+        <v>0.021</v>
       </c>
       <c r="N193" t="n">
-        <v>0.18929</v>
+        <v>0.01659</v>
       </c>
       <c r="O193" t="n">
-        <v>0.17747</v>
+        <v>0.03061</v>
       </c>
       <c r="P193" t="n">
-        <v>871</v>
+        <v>209</v>
       </c>
       <c r="Q193" t="n">
-        <v>21163</v>
+        <v>1097</v>
       </c>
       <c r="R193" t="inlineStr">
         <is>
@@ -12432,69 +12432,69 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Beef sausages</t>
+          <t>Cocoa</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Bovine Meat (beef herd)</t>
+          <t>Dark Chocolate</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>40571</v>
+        <v>4416</v>
       </c>
       <c r="D194" t="n">
-        <v>20.507</v>
+        <v>18.634</v>
       </c>
       <c r="E194" t="n">
-        <v>5.067</v>
+        <v>5.059</v>
       </c>
       <c r="F194" t="n">
-        <v>168.092</v>
+        <v>0</v>
       </c>
       <c r="G194" t="n">
-        <v>16.278</v>
+        <v>14.308</v>
       </c>
       <c r="H194" t="n">
-        <v>1.878</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>39.388</v>
+        <v>3.706</v>
       </c>
       <c r="J194" t="n">
-        <v>1.269</v>
+        <v>0.185</v>
       </c>
       <c r="K194" t="n">
-        <v>0.346</v>
+        <v>0.061</v>
       </c>
       <c r="L194" t="n">
-        <v>0.247</v>
+        <v>0.4</v>
       </c>
       <c r="M194" t="n">
-        <v>0.164</v>
+        <v>0.021</v>
       </c>
       <c r="N194" t="n">
-        <v>0.18929</v>
+        <v>0.01659</v>
       </c>
       <c r="O194" t="n">
-        <v>0.17747</v>
+        <v>0.03061</v>
       </c>
       <c r="P194" t="n">
-        <v>871</v>
+        <v>209</v>
       </c>
       <c r="Q194" t="n">
-        <v>21163</v>
+        <v>1097</v>
       </c>
       <c r="R194" t="inlineStr">
         <is>
-          <t>PA based on AGRIBALYSE</t>
+          <t>Poore&amp;Nemecek</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Beef burger</t>
+          <t>Beef</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
@@ -12549,14 +12549,14 @@
       </c>
       <c r="R195" t="inlineStr">
         <is>
-          <t>PA based on AGRIBALYSE</t>
+          <t>Poore&amp;Nemecek</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Bresaola</t>
+          <t>Beef sausages</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
@@ -12618,7 +12618,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>Veal</t>
+          <t>Beef burger</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
@@ -12680,182 +12680,182 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Cow</t>
+          <t>Bresaola</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Bovine Meat (dairy herd)</t>
+          <t>Bovine Meat (beef herd)</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>31425</v>
+        <v>40571</v>
       </c>
       <c r="D198" t="n">
-        <v>10.096</v>
+        <v>20.507</v>
       </c>
       <c r="E198" t="n">
-        <v>1.965</v>
+        <v>5.067</v>
       </c>
       <c r="F198" t="n">
-        <v>13.667</v>
+        <v>168.092</v>
       </c>
       <c r="G198" t="n">
-        <v>0.906</v>
+        <v>16.278</v>
       </c>
       <c r="H198" t="n">
-        <v>2.508</v>
+        <v>1.878</v>
       </c>
       <c r="I198" t="n">
-        <v>15.689</v>
+        <v>39.388</v>
       </c>
       <c r="J198" t="n">
-        <v>1.108</v>
+        <v>1.269</v>
       </c>
       <c r="K198" t="n">
-        <v>0.424</v>
+        <v>0.346</v>
       </c>
       <c r="L198" t="n">
-        <v>0.268</v>
+        <v>0.247</v>
       </c>
       <c r="M198" t="n">
-        <v>0.182</v>
+        <v>0.164</v>
       </c>
       <c r="N198" t="n">
-        <v>0.20946</v>
+        <v>0.18929</v>
       </c>
       <c r="O198" t="n">
-        <v>0.20883</v>
+        <v>0.17747</v>
       </c>
       <c r="P198" t="n">
-        <v>1650</v>
+        <v>871</v>
       </c>
       <c r="Q198" t="n">
-        <v>75339</v>
+        <v>21163</v>
       </c>
       <c r="R198" t="inlineStr">
         <is>
-          <t>Poore&amp;Nemecek</t>
+          <t>PA based on AGRIBALYSE</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Goat</t>
+          <t>Veal</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Lamb &amp; Mutton</t>
+          <t>Bovine Meat (beef herd)</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>14195</v>
+        <v>40571</v>
       </c>
       <c r="D199" t="n">
-        <v>9.292</v>
+        <v>20.507</v>
       </c>
       <c r="E199" t="n">
-        <v>1.666</v>
+        <v>5.067</v>
       </c>
       <c r="F199" t="n">
-        <v>212.348</v>
+        <v>168.092</v>
       </c>
       <c r="G199" t="n">
-        <v>0.468</v>
+        <v>16.278</v>
       </c>
       <c r="H199" t="n">
-        <v>2.37</v>
+        <v>1.878</v>
       </c>
       <c r="I199" t="n">
-        <v>19.508</v>
+        <v>39.388</v>
       </c>
       <c r="J199" t="n">
-        <v>1.111</v>
+        <v>1.269</v>
       </c>
       <c r="K199" t="n">
-        <v>0.49</v>
+        <v>0.346</v>
       </c>
       <c r="L199" t="n">
-        <v>0.251</v>
+        <v>0.247</v>
       </c>
       <c r="M199" t="n">
-        <v>0.217</v>
+        <v>0.164</v>
       </c>
       <c r="N199" t="n">
-        <v>0.08726</v>
+        <v>0.18929</v>
       </c>
       <c r="O199" t="n">
-        <v>0.05965</v>
+        <v>0.17747</v>
       </c>
       <c r="P199" t="n">
-        <v>1082</v>
+        <v>871</v>
       </c>
       <c r="Q199" t="n">
-        <v>85193</v>
+        <v>21163</v>
       </c>
       <c r="R199" t="inlineStr">
         <is>
-          <t>Poore&amp;Nemecek</t>
+          <t>PA based on AGRIBALYSE</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Lamb</t>
+          <t>Cow</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Lamb &amp; Mutton</t>
+          <t>Bovine Meat (dairy herd)</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>14195</v>
+        <v>31425</v>
       </c>
       <c r="D200" t="n">
-        <v>9.292</v>
+        <v>10.096</v>
       </c>
       <c r="E200" t="n">
-        <v>1.666</v>
+        <v>1.965</v>
       </c>
       <c r="F200" t="n">
-        <v>212.348</v>
+        <v>13.667</v>
       </c>
       <c r="G200" t="n">
-        <v>0.468</v>
+        <v>0.906</v>
       </c>
       <c r="H200" t="n">
-        <v>2.37</v>
+        <v>2.508</v>
       </c>
       <c r="I200" t="n">
-        <v>19.508</v>
+        <v>15.689</v>
       </c>
       <c r="J200" t="n">
-        <v>1.111</v>
+        <v>1.108</v>
       </c>
       <c r="K200" t="n">
-        <v>0.49</v>
+        <v>0.424</v>
       </c>
       <c r="L200" t="n">
-        <v>0.251</v>
+        <v>0.268</v>
       </c>
       <c r="M200" t="n">
-        <v>0.217</v>
+        <v>0.182</v>
       </c>
       <c r="N200" t="n">
-        <v>0.08726</v>
+        <v>0.20946</v>
       </c>
       <c r="O200" t="n">
-        <v>0.05965</v>
+        <v>0.20883</v>
       </c>
       <c r="P200" t="n">
-        <v>1082</v>
+        <v>1650</v>
       </c>
       <c r="Q200" t="n">
-        <v>85193</v>
+        <v>75339</v>
       </c>
       <c r="R200" t="inlineStr">
         <is>
@@ -12866,7 +12866,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Kid</t>
+          <t>Goat</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
@@ -12928,7 +12928,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Mutton</t>
+          <t>Lamb</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
@@ -12990,58 +12990,58 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Pork</t>
+          <t>Kid</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Pig Meat</t>
+          <t>Lamb &amp; Mutton</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>112892</v>
+        <v>14195</v>
       </c>
       <c r="D203" t="n">
-        <v>7.882</v>
+        <v>9.292</v>
       </c>
       <c r="E203" t="n">
-        <v>2.23</v>
+        <v>1.666</v>
       </c>
       <c r="F203" t="n">
-        <v>0.044</v>
+        <v>212.348</v>
       </c>
       <c r="G203" t="n">
-        <v>1.535</v>
+        <v>0.468</v>
       </c>
       <c r="H203" t="n">
-        <v>2.94</v>
+        <v>2.37</v>
       </c>
       <c r="I203" t="n">
-        <v>1.694</v>
+        <v>19.508</v>
       </c>
       <c r="J203" t="n">
-        <v>0.284</v>
+        <v>1.111</v>
       </c>
       <c r="K203" t="n">
-        <v>0.343</v>
+        <v>0.49</v>
       </c>
       <c r="L203" t="n">
-        <v>0.296</v>
+        <v>0.251</v>
       </c>
       <c r="M203" t="n">
-        <v>0.19</v>
+        <v>0.217</v>
       </c>
       <c r="N203" t="n">
-        <v>0.08265</v>
+        <v>0.08726</v>
       </c>
       <c r="O203" t="n">
-        <v>0.04416</v>
+        <v>0.05965</v>
       </c>
       <c r="P203" t="n">
-        <v>1073</v>
+        <v>1082</v>
       </c>
       <c r="Q203" t="n">
-        <v>40028</v>
+        <v>85193</v>
       </c>
       <c r="R203" t="inlineStr">
         <is>
@@ -13052,69 +13052,69 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Bacon</t>
+          <t>Mutton</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Pig Meat</t>
+          <t>Lamb &amp; Mutton</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>112892</v>
+        <v>14195</v>
       </c>
       <c r="D204" t="n">
-        <v>7.882</v>
+        <v>9.292</v>
       </c>
       <c r="E204" t="n">
-        <v>2.23</v>
+        <v>1.666</v>
       </c>
       <c r="F204" t="n">
-        <v>0.044</v>
+        <v>212.348</v>
       </c>
       <c r="G204" t="n">
-        <v>1.535</v>
+        <v>0.468</v>
       </c>
       <c r="H204" t="n">
-        <v>2.94</v>
+        <v>2.37</v>
       </c>
       <c r="I204" t="n">
-        <v>1.694</v>
+        <v>19.508</v>
       </c>
       <c r="J204" t="n">
-        <v>0.284</v>
+        <v>1.111</v>
       </c>
       <c r="K204" t="n">
-        <v>0.343</v>
+        <v>0.49</v>
       </c>
       <c r="L204" t="n">
-        <v>0.296</v>
+        <v>0.251</v>
       </c>
       <c r="M204" t="n">
-        <v>0.19</v>
+        <v>0.217</v>
       </c>
       <c r="N204" t="n">
-        <v>0.08265</v>
+        <v>0.08726</v>
       </c>
       <c r="O204" t="n">
-        <v>0.04416</v>
+        <v>0.05965</v>
       </c>
       <c r="P204" t="n">
-        <v>1073</v>
+        <v>1082</v>
       </c>
       <c r="Q204" t="n">
-        <v>40028</v>
+        <v>85193</v>
       </c>
       <c r="R204" t="inlineStr">
         <is>
-          <t>PA based on AGRIBALYSE</t>
+          <t>Poore&amp;Nemecek</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Ham</t>
+          <t>Pork</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
@@ -13169,14 +13169,14 @@
       </c>
       <c r="R205" t="inlineStr">
         <is>
-          <t>PA based on AGRIBALYSE</t>
+          <t>Poore&amp;Nemecek</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Pork sausages</t>
+          <t>Bacon</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
@@ -13238,7 +13238,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Pork ribs</t>
+          <t>Ham</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
@@ -13300,7 +13300,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Pork burger</t>
+          <t>Pork sausages</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
@@ -13362,120 +13362,120 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Chicken</t>
+          <t>Pork ribs</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Poultry Meat</t>
+          <t>Pig Meat</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>96439</v>
+        <v>112892</v>
       </c>
       <c r="D209" t="n">
-        <v>5.66</v>
+        <v>7.882</v>
       </c>
       <c r="E209" t="n">
-        <v>1.83</v>
+        <v>2.23</v>
       </c>
       <c r="F209" t="n">
-        <v>0</v>
+        <v>0.044</v>
       </c>
       <c r="G209" t="n">
-        <v>2.54</v>
+        <v>1.535</v>
       </c>
       <c r="H209" t="n">
-        <v>1.775</v>
+        <v>2.94</v>
       </c>
       <c r="I209" t="n">
-        <v>0.672</v>
+        <v>1.694</v>
       </c>
       <c r="J209" t="n">
-        <v>0.44</v>
+        <v>0.284</v>
       </c>
       <c r="K209" t="n">
-        <v>0.276</v>
+        <v>0.343</v>
       </c>
       <c r="L209" t="n">
-        <v>0.212</v>
+        <v>0.296</v>
       </c>
       <c r="M209" t="n">
-        <v>0.177</v>
+        <v>0.19</v>
       </c>
       <c r="N209" t="n">
-        <v>0.06439</v>
+        <v>0.08265</v>
       </c>
       <c r="O209" t="n">
-        <v>0.02957</v>
+        <v>0.04416</v>
       </c>
       <c r="P209" t="n">
-        <v>402</v>
+        <v>1073</v>
       </c>
       <c r="Q209" t="n">
-        <v>8828</v>
+        <v>40028</v>
       </c>
       <c r="R209" t="inlineStr">
         <is>
-          <t>Poore&amp;Nemecek</t>
+          <t>PA based on AGRIBALYSE</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Chicken sausages</t>
+          <t>Pork burger</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Poultry Meat</t>
+          <t>Pig Meat</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>96439</v>
+        <v>112892</v>
       </c>
       <c r="D210" t="n">
-        <v>5.66</v>
+        <v>7.882</v>
       </c>
       <c r="E210" t="n">
-        <v>1.83</v>
+        <v>2.23</v>
       </c>
       <c r="F210" t="n">
-        <v>0</v>
+        <v>0.044</v>
       </c>
       <c r="G210" t="n">
-        <v>2.54</v>
+        <v>1.535</v>
       </c>
       <c r="H210" t="n">
-        <v>1.775</v>
+        <v>2.94</v>
       </c>
       <c r="I210" t="n">
-        <v>0.672</v>
+        <v>1.694</v>
       </c>
       <c r="J210" t="n">
-        <v>0.44</v>
+        <v>0.284</v>
       </c>
       <c r="K210" t="n">
-        <v>0.276</v>
+        <v>0.343</v>
       </c>
       <c r="L210" t="n">
-        <v>0.212</v>
+        <v>0.296</v>
       </c>
       <c r="M210" t="n">
-        <v>0.177</v>
+        <v>0.19</v>
       </c>
       <c r="N210" t="n">
-        <v>0.06439</v>
+        <v>0.08265</v>
       </c>
       <c r="O210" t="n">
-        <v>0.02957</v>
+        <v>0.04416</v>
       </c>
       <c r="P210" t="n">
-        <v>402</v>
+        <v>1073</v>
       </c>
       <c r="Q210" t="n">
-        <v>8828</v>
+        <v>40028</v>
       </c>
       <c r="R210" t="inlineStr">
         <is>
@@ -13486,7 +13486,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Chicken burger</t>
+          <t>Chicken</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
@@ -13541,14 +13541,14 @@
       </c>
       <c r="R211" t="inlineStr">
         <is>
-          <t>PA based on AGRIBALYSE</t>
+          <t>Poore&amp;Nemecek</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Goose</t>
+          <t>Chicken sausages</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
@@ -13603,14 +13603,14 @@
       </c>
       <c r="R212" t="inlineStr">
         <is>
-          <t>Poore&amp;Nemecek</t>
+          <t>PA based on AGRIBALYSE</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Chicken burger</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
@@ -13665,14 +13665,14 @@
       </c>
       <c r="R213" t="inlineStr">
         <is>
-          <t>Poore&amp;Nemecek</t>
+          <t>PA based on AGRIBALYSE</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Duck</t>
+          <t>Goose</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
@@ -13734,58 +13734,58 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Buffalo milk</t>
+          <t>Turkey</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Milk</t>
+          <t>Poultry Meat</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>470267</v>
+        <v>96439</v>
       </c>
       <c r="D215" t="n">
-        <v>1.327</v>
+        <v>5.66</v>
       </c>
       <c r="E215" t="n">
-        <v>0.402</v>
+        <v>1.83</v>
       </c>
       <c r="F215" t="n">
-        <v>6.275</v>
+        <v>0</v>
       </c>
       <c r="G215" t="n">
-        <v>0.495</v>
+        <v>2.54</v>
       </c>
       <c r="H215" t="n">
-        <v>0.236</v>
+        <v>1.775</v>
       </c>
       <c r="I215" t="n">
-        <v>1.458</v>
+        <v>0.672</v>
       </c>
       <c r="J215" t="n">
-        <v>0.149</v>
+        <v>0.44</v>
       </c>
       <c r="K215" t="n">
-        <v>0.09</v>
+        <v>0.276</v>
       </c>
       <c r="L215" t="n">
-        <v>0.097</v>
+        <v>0.212</v>
       </c>
       <c r="M215" t="n">
-        <v>0.256</v>
+        <v>0.177</v>
       </c>
       <c r="N215" t="n">
-        <v>0.01766</v>
+        <v>0.06439</v>
       </c>
       <c r="O215" t="n">
-        <v>0.009339999999999999</v>
+        <v>0.02957</v>
       </c>
       <c r="P215" t="n">
-        <v>533</v>
+        <v>402</v>
       </c>
       <c r="Q215" t="n">
-        <v>16951</v>
+        <v>8828</v>
       </c>
       <c r="R215" t="inlineStr">
         <is>
@@ -13796,58 +13796,58 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Cow milk</t>
+          <t>Duck</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Milk</t>
+          <t>Poultry Meat</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>470267</v>
+        <v>96439</v>
       </c>
       <c r="D216" t="n">
-        <v>1.327</v>
+        <v>5.66</v>
       </c>
       <c r="E216" t="n">
-        <v>0.402</v>
+        <v>1.83</v>
       </c>
       <c r="F216" t="n">
-        <v>6.275</v>
+        <v>0</v>
       </c>
       <c r="G216" t="n">
-        <v>0.495</v>
+        <v>2.54</v>
       </c>
       <c r="H216" t="n">
-        <v>0.236</v>
+        <v>1.775</v>
       </c>
       <c r="I216" t="n">
-        <v>1.458</v>
+        <v>0.672</v>
       </c>
       <c r="J216" t="n">
-        <v>0.149</v>
+        <v>0.44</v>
       </c>
       <c r="K216" t="n">
-        <v>0.09</v>
+        <v>0.276</v>
       </c>
       <c r="L216" t="n">
-        <v>0.097</v>
+        <v>0.212</v>
       </c>
       <c r="M216" t="n">
-        <v>0.256</v>
+        <v>0.177</v>
       </c>
       <c r="N216" t="n">
-        <v>0.01766</v>
+        <v>0.06439</v>
       </c>
       <c r="O216" t="n">
-        <v>0.009339999999999999</v>
+        <v>0.02957</v>
       </c>
       <c r="P216" t="n">
-        <v>533</v>
+        <v>402</v>
       </c>
       <c r="Q216" t="n">
-        <v>16951</v>
+        <v>8828</v>
       </c>
       <c r="R216" t="inlineStr">
         <is>
@@ -13858,7 +13858,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Sheep milk</t>
+          <t>Buffalo milk</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
@@ -13920,7 +13920,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Goat milk</t>
+          <t>Cow milk</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
@@ -13982,7 +13982,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Condensed milk</t>
+          <t>Sheep milk</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
@@ -14037,14 +14037,14 @@
       </c>
       <c r="R219" t="inlineStr">
         <is>
-          <t>PA based on AGRIBALYSE</t>
+          <t>Poore&amp;Nemecek</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Milk powder</t>
+          <t>Goat milk</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
@@ -14099,14 +14099,14 @@
       </c>
       <c r="R220" t="inlineStr">
         <is>
-          <t>PA based on AGRIBALYSE</t>
+          <t>Poore&amp;Nemecek</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Yogurt</t>
+          <t>Condensed milk</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
@@ -14168,7 +14168,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Greek yogurt</t>
+          <t>Milk powder</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
@@ -14230,7 +14230,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Dairy drink</t>
+          <t>Yogurt</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -14292,131 +14292,131 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Buffalo milk</t>
+          <t>Greek yogurt</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Cheese</t>
+          <t>Milk</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>21191</v>
+        <v>470267</v>
       </c>
       <c r="D224" t="n">
-        <v>12.104</v>
+        <v>1.327</v>
       </c>
       <c r="E224" t="n">
-        <v>3.658</v>
+        <v>0.402</v>
       </c>
       <c r="F224" t="n">
-        <v>64.88</v>
+        <v>6.275</v>
       </c>
       <c r="G224" t="n">
-        <v>4.455</v>
+        <v>0.495</v>
       </c>
       <c r="H224" t="n">
-        <v>2.346</v>
+        <v>0.236</v>
       </c>
       <c r="I224" t="n">
-        <v>13.059</v>
+        <v>1.458</v>
       </c>
       <c r="J224" t="n">
-        <v>0.738</v>
+        <v>0.149</v>
       </c>
       <c r="K224" t="n">
-        <v>0.138</v>
+        <v>0.09</v>
       </c>
       <c r="L224" t="n">
-        <v>0.172</v>
+        <v>0.097</v>
       </c>
       <c r="M224" t="n">
-        <v>0.332</v>
+        <v>0.256</v>
       </c>
       <c r="N224" t="n">
-        <v>0.14894</v>
+        <v>0.01766</v>
       </c>
       <c r="O224" t="n">
-        <v>0.08875</v>
+        <v>0.009339999999999999</v>
       </c>
       <c r="P224" t="n">
-        <v>4735</v>
+        <v>533</v>
       </c>
       <c r="Q224" t="n">
-        <v>155464</v>
+        <v>16951</v>
       </c>
       <c r="R224" t="inlineStr">
         <is>
-          <t>Poore&amp;Nemecek</t>
+          <t>PA based on AGRIBALYSE</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Cow milk</t>
+          <t>Dairy drink</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Cheese</t>
+          <t>Milk</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>21191</v>
+        <v>470267</v>
       </c>
       <c r="D225" t="n">
-        <v>12.104</v>
+        <v>1.327</v>
       </c>
       <c r="E225" t="n">
-        <v>3.658</v>
+        <v>0.402</v>
       </c>
       <c r="F225" t="n">
-        <v>64.88</v>
+        <v>6.275</v>
       </c>
       <c r="G225" t="n">
-        <v>4.455</v>
+        <v>0.495</v>
       </c>
       <c r="H225" t="n">
-        <v>2.346</v>
+        <v>0.236</v>
       </c>
       <c r="I225" t="n">
-        <v>13.059</v>
+        <v>1.458</v>
       </c>
       <c r="J225" t="n">
-        <v>0.738</v>
+        <v>0.149</v>
       </c>
       <c r="K225" t="n">
-        <v>0.138</v>
+        <v>0.09</v>
       </c>
       <c r="L225" t="n">
-        <v>0.172</v>
+        <v>0.097</v>
       </c>
       <c r="M225" t="n">
-        <v>0.332</v>
+        <v>0.256</v>
       </c>
       <c r="N225" t="n">
-        <v>0.14894</v>
+        <v>0.01766</v>
       </c>
       <c r="O225" t="n">
-        <v>0.08875</v>
+        <v>0.009339999999999999</v>
       </c>
       <c r="P225" t="n">
-        <v>4735</v>
+        <v>533</v>
       </c>
       <c r="Q225" t="n">
-        <v>155464</v>
+        <v>16951</v>
       </c>
       <c r="R225" t="inlineStr">
         <is>
-          <t>Poore&amp;Nemecek</t>
+          <t>PA based on AGRIBALYSE</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Sheep milk</t>
+          <t>Cheese from Buffalo milk</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
@@ -14478,7 +14478,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Goat milk</t>
+          <t>Cheese from Cow milk</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
@@ -14540,7 +14540,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Cow cheese</t>
+          <t>Cheese from Sheep milk</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
@@ -14602,7 +14602,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Cheddar</t>
+          <t>Cheese from Goat milk</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
@@ -14664,7 +14664,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Gouda</t>
+          <t>Cow cheese</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
@@ -14726,7 +14726,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Emmental</t>
+          <t>Cheddar</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
@@ -14788,7 +14788,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Mozarella</t>
+          <t>Gouda</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
@@ -14850,7 +14850,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>Cream cheese</t>
+          <t>Emmental</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
@@ -14905,14 +14905,14 @@
       </c>
       <c r="R233" t="inlineStr">
         <is>
-          <t>PA based on AGRIBALYSE</t>
+          <t>Poore&amp;Nemecek</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Abondance cheese, from cow's milk</t>
+          <t>Mozarella</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
@@ -14967,14 +14967,14 @@
       </c>
       <c r="R234" t="inlineStr">
         <is>
-          <t>PA based on AGRIBALYSE</t>
+          <t>Poore&amp;Nemecek</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Asiago cheese, from cow's milk</t>
+          <t>Cream cheese</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
@@ -15036,7 +15036,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Auvergne blue cheese, from cow's milk</t>
+          <t>Abondance cheese, from cow's milk</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
@@ -15098,7 +15098,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Beaufort cheese, from cow's milk</t>
+          <t>Asiago cheese, from cow's milk</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
@@ -15160,7 +15160,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Blue cheese, from cow's milk</t>
+          <t>Auvergne blue cheese, from cow's milk</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
@@ -15222,7 +15222,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Bresse blue cheese, from cow's milk</t>
+          <t>Beaufort cheese, from cow's milk</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
@@ -15284,7 +15284,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Brie cheese, from cow's milk</t>
+          <t>Blue cheese, from cow's milk</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
@@ -15346,7 +15346,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Brie de Meaux cheese, from cow's milk</t>
+          <t>Bresse blue cheese, from cow's milk</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
@@ -15408,7 +15408,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Brie de Melun cheese, from cow's milk</t>
+          <t>Brie cheese, from cow's milk</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
@@ -15470,7 +15470,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Camembert cheese, from cow's milk</t>
+          <t>Brie de Meaux cheese, from cow's milk</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
@@ -15532,7 +15532,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Cantal cheese, from cow's milk</t>
+          <t>Brie de Melun cheese, from cow's milk</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
@@ -15594,7 +15594,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Carré de l'Est cheese, from cow's milk</t>
+          <t>Camembert cheese, from cow's milk</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
@@ -15656,7 +15656,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Causses blue cheese, from cow's milk</t>
+          <t>Cantal cheese, from cow's milk</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
@@ -15718,7 +15718,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Chabichou cheese, from goat's milk</t>
+          <t>Carré de l'Est cheese, from cow's milk</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
@@ -15780,7 +15780,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Chaource cheese, from cow's milk</t>
+          <t>Causses blue cheese, from cow's milk</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
@@ -15842,7 +15842,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Cheddar cheese, from cow's milk</t>
+          <t>Chabichou cheese, from goat's milk</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
@@ -15904,7 +15904,7 @@
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Cheese, buche, from goat's milk</t>
+          <t>Chaource cheese, from cow's milk</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
@@ -15966,7 +15966,7 @@
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Cheese, dry, from goat's milk</t>
+          <t>Cheddar cheese, from cow's milk</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
@@ -16028,7 +16028,7 @@
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Cheese, from goat's milk</t>
+          <t>Cheese, buche, from goat's milk</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
@@ -16090,7 +16090,7 @@
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Cheese, semi-dry, from goat's milk</t>
+          <t>Cheese, dry, from goat's milk</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
@@ -16152,7 +16152,7 @@
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Chevrot cheese, from goat's milk</t>
+          <t>Cheese, from goat's milk</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
@@ -16214,7 +16214,7 @@
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>Comté cheese, from cow's milk</t>
+          <t>Cheese, semi-dry, from goat's milk</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
@@ -16276,7 +16276,7 @@
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Corsica soft ripened cheese, from ewe's milk</t>
+          <t>Chevrot cheese, from goat's milk</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
@@ -16338,7 +16338,7 @@
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Coulommiers cheese, from cow's milk</t>
+          <t>Comté cheese, from cow's milk</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
@@ -16400,7 +16400,7 @@
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>Crottin cheese, from goat's milk</t>
+          <t>Corsica soft ripened cheese, from ewe's milk</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
@@ -16462,7 +16462,7 @@
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Crottin de Chavignol cheese, from goat's milk</t>
+          <t>Coulommiers cheese, from cow's milk</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
@@ -16524,7 +16524,7 @@
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Edam cheese, from cow's milk</t>
+          <t>Crottin cheese, from goat's milk</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
@@ -16586,7 +16586,7 @@
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Emmental cheese, from cow's milk</t>
+          <t>Crottin de Chavignol cheese, from goat's milk</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
@@ -16648,7 +16648,7 @@
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Époisses cheese, from cow's milk</t>
+          <t>Edam cheese, from cow's milk</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
@@ -16710,7 +16710,7 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>Feta cheese, from ewe's milk</t>
+          <t>Emmental cheese, from cow's milk</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
@@ -16772,7 +16772,7 @@
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Feta-type cheese from cow's milk</t>
+          <t>Époisses cheese, from cow's milk</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
@@ -16834,7 +16834,7 @@
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Fontina cheese, from cow's milk</t>
+          <t>Feta cheese, from ewe's milk</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
@@ -16896,7 +16896,7 @@
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>Fourme d'Ambert cheese, from cow's milk</t>
+          <t>Feta-type cheese from cow's milk</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
@@ -16958,7 +16958,7 @@
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>Fourme de Montbrison cheese</t>
+          <t>Fontina cheese, from cow's milk</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
@@ -17020,7 +17020,7 @@
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>Gex blue cheese, or Jura blue cheese or Septmoncel blue cheese, from cow's milk</t>
+          <t>Fourme d'Ambert cheese, from cow's milk</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
@@ -17082,7 +17082,7 @@
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Goat cheese from raw milk</t>
+          <t>Fourme de Montbrison cheese</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
@@ -17144,7 +17144,7 @@
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Gorgonzola cheese, from cow's milk</t>
+          <t>Gex blue cheese, or Jura blue cheese or Septmoncel blue cheese, from cow's milk</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
@@ -17206,7 +17206,7 @@
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Gouda cheese, from cow's milk</t>
+          <t>Goat cheese from raw milk</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
@@ -17268,7 +17268,7 @@
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>Grana Padano cheese, from cow's milk</t>
+          <t>Gorgonzola cheese, from cow's milk</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
@@ -17330,7 +17330,7 @@
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Gruyere cheese, from cow's milk</t>
+          <t>Gouda cheese, from cow's milk</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
@@ -17392,7 +17392,7 @@
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Hard cheese, emmental-type cheese, reduced fat</t>
+          <t>Grana Padano cheese, from cow's milk</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
@@ -17454,7 +17454,7 @@
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Langres cheese, from cow's milk</t>
+          <t>Gruyere cheese, from cow's milk</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
@@ -17516,7 +17516,7 @@
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>Livarot cheese, from cow's milk</t>
+          <t>Hard cheese, emmental-type cheese, reduced fat</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
@@ -17578,7 +17578,7 @@
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>Maroilles cheese, from cow's milk</t>
+          <t>Langres cheese, from cow's milk</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
@@ -17640,7 +17640,7 @@
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>Mimolette cheese, from cow's milk</t>
+          <t>Livarot cheese, from cow's milk</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
@@ -17702,7 +17702,7 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>Morbier cheese, from cow's milk</t>
+          <t>Maroilles cheese, from cow's milk</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
@@ -17764,7 +17764,7 @@
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>Mozzarella cheese, from cow's milk</t>
+          <t>Mimolette cheese, from cow's milk</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
@@ -17826,7 +17826,7 @@
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>Munster cheese, from cow's milk</t>
+          <t>Morbier cheese, from cow's milk</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
@@ -17888,7 +17888,7 @@
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>Neufchâtel cheese, from cow's milk</t>
+          <t>Mozzarella cheese, from cow's milk</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
@@ -17950,7 +17950,7 @@
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>Ossau-Iraty cheese, from ewe's milk</t>
+          <t>Munster cheese, from cow's milk</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
@@ -18012,7 +18012,7 @@
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>Parmesan cheese, from cow's milk</t>
+          <t>Neufchâtel cheese, from cow's milk</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
@@ -18074,7 +18074,7 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>Pélardon cheese, from goat's milk</t>
+          <t>Ossau-Iraty cheese, from ewe's milk</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
@@ -18136,7 +18136,7 @@
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>Picodon cheese, from goat's milk</t>
+          <t>Parmesan cheese, from cow's milk</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
@@ -18198,7 +18198,7 @@
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>Plant-based cheese, without soybean, prepacked, shredded</t>
+          <t>Pélardon cheese, from goat's milk</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
@@ -18260,7 +18260,7 @@
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>Plant-based cheese, without soybean, prepacked, sliced</t>
+          <t>Picodon cheese, from goat's milk</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
@@ -18322,7 +18322,7 @@
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>Plant-based spread-cheese type, with soybean, prepacked</t>
+          <t>Plant-based cheese, without soybean, prepacked, shredded</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
@@ -18384,7 +18384,7 @@
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>Pont l'Evêque cheese, from cow's milk</t>
+          <t>Plant-based cheese, without soybean, prepacked, sliced</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
@@ -18446,7 +18446,7 @@
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>Pouligny Saint-Pierre cheese, from goat's milk</t>
+          <t>Plant-based spread-cheese type, with soybean, prepacked</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
@@ -18508,7 +18508,7 @@
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>Processed cheese</t>
+          <t>Pont l'Evêque cheese, from cow's milk</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
@@ -18570,7 +18570,7 @@
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>Provolone cheese, from cow's milk</t>
+          <t>Pouligny Saint-Pierre cheese, from goat's milk</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
@@ -18632,7 +18632,7 @@
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>Pyrénées cheese, from ewe's milk</t>
+          <t>Processed cheese</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
@@ -18694,7 +18694,7 @@
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>Raclette cheese, from cow's milk</t>
+          <t>Provolone cheese, from cow's milk</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
@@ -18756,7 +18756,7 @@
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>Reblochon cheese, from cow's milk</t>
+          <t>Pyrénées cheese, from ewe's milk</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
@@ -18818,7 +18818,7 @@
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>Rocamadour cheese, from goat's milk</t>
+          <t>Raclette cheese, from cow's milk</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
@@ -18880,7 +18880,7 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>Roquefort cheese, from ewe's milk</t>
+          <t>Reblochon cheese, from cow's milk</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
@@ -18942,7 +18942,7 @@
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>Sainte Maure cheese, from goat's milk</t>
+          <t>Rocamadour cheese, from goat's milk</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
@@ -19004,7 +19004,7 @@
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>Saint-Felicien cheese, from cow's milk</t>
+          <t>Roquefort cheese, from ewe's milk</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
@@ -19066,7 +19066,7 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>Saint-Marcellin cheese, from cow's milk</t>
+          <t>Sainte Maure cheese, from goat's milk</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
@@ -19128,7 +19128,7 @@
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>Saint-Nectaire cheese, from cow's milk</t>
+          <t>Saint-Felicien cheese, from cow's milk</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
@@ -19190,7 +19190,7 @@
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>Saint-Paulin cheese, from cow's milk (semi-hard cheese)</t>
+          <t>Saint-Marcellin cheese, from cow's milk</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
@@ -19252,7 +19252,7 @@
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>Salers cheese, from cow's milk</t>
+          <t>Saint-Nectaire cheese, from cow's milk</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
@@ -19314,7 +19314,7 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>Selles-sur-Cher cheese, from goat's milk</t>
+          <t>Saint-Paulin cheese, from cow's milk (semi-hard cheese)</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
@@ -19376,7 +19376,7 @@
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>Semi-hard cheese, from ewe's milk</t>
+          <t>Salers cheese, from cow's milk</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
@@ -19438,7 +19438,7 @@
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>Soft ripened cheese</t>
+          <t>Selles-sur-Cher cheese, from goat's milk</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
@@ -19500,7 +19500,7 @@
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>Tomme cheese, from cow's milk</t>
+          <t>Semi-hard cheese, from ewe's milk</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
@@ -19562,7 +19562,7 @@
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>Uncured soft cheese, spreadable</t>
+          <t>Soft ripened cheese</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
@@ -19624,7 +19624,7 @@
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>Vacherin cheese or Mont d'or cheese, from cow's milk</t>
+          <t>Tomme cheese, from cow's milk</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
@@ -19686,7 +19686,7 @@
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>Valençay cheese, from goat's milk</t>
+          <t>Uncured soft cheese, spreadable</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
@@ -19748,120 +19748,120 @@
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>Chicken eggs</t>
+          <t>Vacherin cheese or Mont d'or cheese, from cow's milk</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Eggs</t>
+          <t>Cheese</t>
         </is>
       </c>
       <c r="C312" t="n">
-        <v>63489</v>
+        <v>21191</v>
       </c>
       <c r="D312" t="n">
-        <v>4.652</v>
+        <v>12.104</v>
       </c>
       <c r="E312" t="n">
-        <v>1.397</v>
+        <v>3.658</v>
       </c>
       <c r="F312" t="n">
-        <v>0</v>
+        <v>64.88</v>
       </c>
       <c r="G312" t="n">
-        <v>0.709</v>
+        <v>4.455</v>
       </c>
       <c r="H312" t="n">
-        <v>2.2</v>
+        <v>2.346</v>
       </c>
       <c r="I312" t="n">
-        <v>1.317</v>
+        <v>13.059</v>
       </c>
       <c r="J312" t="n">
-        <v>0</v>
+        <v>0.738</v>
       </c>
       <c r="K312" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.138</v>
       </c>
       <c r="L312" t="n">
-        <v>0.161</v>
+        <v>0.172</v>
       </c>
       <c r="M312" t="n">
-        <v>0.036</v>
+        <v>0.332</v>
       </c>
       <c r="N312" t="n">
-        <v>0.05182</v>
+        <v>0.14894</v>
       </c>
       <c r="O312" t="n">
-        <v>0.02102</v>
+        <v>0.08875</v>
       </c>
       <c r="P312" t="n">
-        <v>556</v>
+        <v>4735</v>
       </c>
       <c r="Q312" t="n">
-        <v>17315</v>
+        <v>155464</v>
       </c>
       <c r="R312" t="inlineStr">
         <is>
-          <t>Poore&amp;Nemecek</t>
+          <t>PA based on AGRIBALYSE</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>Duck eggs</t>
+          <t>Valençay cheese, from goat's milk</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Eggs</t>
+          <t>Cheese</t>
         </is>
       </c>
       <c r="C313" t="n">
-        <v>63489</v>
+        <v>21191</v>
       </c>
       <c r="D313" t="n">
-        <v>4.652</v>
+        <v>12.104</v>
       </c>
       <c r="E313" t="n">
-        <v>1.397</v>
+        <v>3.658</v>
       </c>
       <c r="F313" t="n">
-        <v>0</v>
+        <v>64.88</v>
       </c>
       <c r="G313" t="n">
-        <v>0.709</v>
+        <v>4.455</v>
       </c>
       <c r="H313" t="n">
-        <v>2.2</v>
+        <v>2.346</v>
       </c>
       <c r="I313" t="n">
-        <v>1.317</v>
+        <v>13.059</v>
       </c>
       <c r="J313" t="n">
-        <v>0</v>
+        <v>0.738</v>
       </c>
       <c r="K313" t="n">
-        <v>0.08400000000000001</v>
+        <v>0.138</v>
       </c>
       <c r="L313" t="n">
-        <v>0.161</v>
+        <v>0.172</v>
       </c>
       <c r="M313" t="n">
-        <v>0.036</v>
+        <v>0.332</v>
       </c>
       <c r="N313" t="n">
-        <v>0.05182</v>
+        <v>0.14894</v>
       </c>
       <c r="O313" t="n">
-        <v>0.02102</v>
+        <v>0.08875</v>
       </c>
       <c r="P313" t="n">
-        <v>556</v>
+        <v>4735</v>
       </c>
       <c r="Q313" t="n">
-        <v>17315</v>
+        <v>155464</v>
       </c>
       <c r="R313" t="inlineStr">
         <is>
@@ -19872,7 +19872,7 @@
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>Goose eggs</t>
+          <t>Chicken eggs</t>
         </is>
       </c>
       <c r="B314" t="inlineStr">
@@ -19927,14 +19927,14 @@
       </c>
       <c r="R314" t="inlineStr">
         <is>
-          <t>PA based on AGRIBALYSE</t>
+          <t>Poore&amp;Nemecek</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>Turkey eggs</t>
+          <t>Duck eggs</t>
         </is>
       </c>
       <c r="B315" t="inlineStr">
@@ -19996,131 +19996,131 @@
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>Brook trout</t>
+          <t>Goose eggs</t>
         </is>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Fish (farmed)</t>
+          <t>Eggs</t>
         </is>
       </c>
       <c r="C316" t="n">
-        <v>45223</v>
+        <v>63489</v>
       </c>
       <c r="D316" t="n">
-        <v>2.67</v>
+        <v>4.652</v>
       </c>
       <c r="E316" t="n">
-        <v>0.708</v>
+        <v>1.397</v>
       </c>
       <c r="F316" t="n">
         <v>0</v>
       </c>
       <c r="G316" t="n">
-        <v>0.534</v>
+        <v>0.709</v>
       </c>
       <c r="H316" t="n">
-        <v>0.819</v>
+        <v>2.2</v>
       </c>
       <c r="I316" t="n">
-        <v>3.598</v>
+        <v>1.317</v>
       </c>
       <c r="J316" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K316" t="n">
-        <v>0.111</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="L316" t="n">
-        <v>0.061</v>
+        <v>0.161</v>
       </c>
       <c r="M316" t="n">
-        <v>0.04</v>
+        <v>0.036</v>
       </c>
       <c r="N316" t="n">
-        <v>0.025</v>
+        <v>0.05182</v>
       </c>
       <c r="O316" t="n">
-        <v>0.09207</v>
+        <v>0.02102</v>
       </c>
       <c r="P316" t="n">
-        <v>1315</v>
+        <v>556</v>
       </c>
       <c r="Q316" t="n">
-        <v>13691</v>
+        <v>17315</v>
       </c>
       <c r="R316" t="inlineStr">
         <is>
-          <t>Poore&amp;Nemecek</t>
+          <t>PA based on AGRIBALYSE</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>Brown trout</t>
+          <t>Turkey eggs</t>
         </is>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Fish (farmed)</t>
+          <t>Eggs</t>
         </is>
       </c>
       <c r="C317" t="n">
-        <v>45223</v>
+        <v>63489</v>
       </c>
       <c r="D317" t="n">
-        <v>2.67</v>
+        <v>4.652</v>
       </c>
       <c r="E317" t="n">
-        <v>0.708</v>
+        <v>1.397</v>
       </c>
       <c r="F317" t="n">
         <v>0</v>
       </c>
       <c r="G317" t="n">
-        <v>0.534</v>
+        <v>0.709</v>
       </c>
       <c r="H317" t="n">
-        <v>0.819</v>
+        <v>2.2</v>
       </c>
       <c r="I317" t="n">
-        <v>3.598</v>
+        <v>1.317</v>
       </c>
       <c r="J317" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="K317" t="n">
-        <v>0.111</v>
+        <v>0.08400000000000001</v>
       </c>
       <c r="L317" t="n">
-        <v>0.061</v>
+        <v>0.161</v>
       </c>
       <c r="M317" t="n">
-        <v>0.04</v>
+        <v>0.036</v>
       </c>
       <c r="N317" t="n">
-        <v>0.025</v>
+        <v>0.05182</v>
       </c>
       <c r="O317" t="n">
-        <v>0.09207</v>
+        <v>0.02102</v>
       </c>
       <c r="P317" t="n">
-        <v>1315</v>
+        <v>556</v>
       </c>
       <c r="Q317" t="n">
-        <v>13691</v>
+        <v>17315</v>
       </c>
       <c r="R317" t="inlineStr">
         <is>
-          <t>Poore&amp;Nemecek</t>
+          <t>PA based on AGRIBALYSE</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>Tench</t>
+          <t>Brook trout</t>
         </is>
       </c>
       <c r="B318" t="inlineStr">
@@ -20182,7 +20182,7 @@
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>Roach</t>
+          <t>Brown trout</t>
         </is>
       </c>
       <c r="B319" t="inlineStr">
@@ -20244,7 +20244,7 @@
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>Perch</t>
+          <t>Tench</t>
         </is>
       </c>
       <c r="B320" t="inlineStr">
@@ -20306,7 +20306,7 @@
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>Artich char</t>
+          <t>Roach</t>
         </is>
       </c>
       <c r="B321" t="inlineStr">
@@ -20368,7 +20368,7 @@
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>Common carp</t>
+          <t>Perch</t>
         </is>
       </c>
       <c r="B322" t="inlineStr">
@@ -20430,7 +20430,7 @@
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>Pike</t>
+          <t>Artich char</t>
         </is>
       </c>
       <c r="B323" t="inlineStr">
@@ -20492,7 +20492,7 @@
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>Sander</t>
+          <t>Common carp</t>
         </is>
       </c>
       <c r="B324" t="inlineStr">
@@ -20554,7 +20554,7 @@
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>Grass carp</t>
+          <t>Pike</t>
         </is>
       </c>
       <c r="B325" t="inlineStr">
@@ -20616,7 +20616,7 @@
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>Silver carp</t>
+          <t>Sander</t>
         </is>
       </c>
       <c r="B326" t="inlineStr">
@@ -20678,7 +20678,7 @@
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>Big head carp</t>
+          <t>Grass carp</t>
         </is>
       </c>
       <c r="B327" t="inlineStr">
@@ -20740,7 +20740,7 @@
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>Catfish</t>
+          <t>Silver carp</t>
         </is>
       </c>
       <c r="B328" t="inlineStr">
@@ -20802,7 +20802,7 @@
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>Pangasius</t>
+          <t>Big head carp</t>
         </is>
       </c>
       <c r="B329" t="inlineStr">
@@ -20864,7 +20864,7 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>Rainbown trout</t>
+          <t>Catfish</t>
         </is>
       </c>
       <c r="B330" t="inlineStr">
@@ -20926,7 +20926,7 @@
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>Salmon</t>
+          <t>Pangasius</t>
         </is>
       </c>
       <c r="B331" t="inlineStr">
@@ -20988,7 +20988,7 @@
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>Sea bass</t>
+          <t>Rainbown trout</t>
         </is>
       </c>
       <c r="B332" t="inlineStr">
@@ -21050,7 +21050,7 @@
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>Sea bream</t>
+          <t>Salmon</t>
         </is>
       </c>
       <c r="B333" t="inlineStr">
@@ -21112,7 +21112,7 @@
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>Tambaqui</t>
+          <t>Sea bass</t>
         </is>
       </c>
       <c r="B334" t="inlineStr">
@@ -21174,7 +21174,7 @@
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>Tilapia</t>
+          <t>Sea bream</t>
         </is>
       </c>
       <c r="B335" t="inlineStr">
@@ -21236,7 +21236,7 @@
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>African catfish</t>
+          <t>Tambaqui</t>
         </is>
       </c>
       <c r="B336" t="inlineStr">
@@ -21298,7 +21298,7 @@
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>Striped catfish</t>
+          <t>Tilapia</t>
         </is>
       </c>
       <c r="B337" t="inlineStr">
@@ -21360,7 +21360,7 @@
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>Kissing gourami</t>
+          <t>African catfish</t>
         </is>
       </c>
       <c r="B338" t="inlineStr">
@@ -21422,7 +21422,7 @@
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>Giant gourami</t>
+          <t>Striped catfish</t>
         </is>
       </c>
       <c r="B339" t="inlineStr">
@@ -21484,7 +21484,7 @@
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>Silver barb</t>
+          <t>Kissing gourami</t>
         </is>
       </c>
       <c r="B340" t="inlineStr">
@@ -21546,7 +21546,7 @@
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>Trout</t>
+          <t>Giant gourami</t>
         </is>
       </c>
       <c r="B341" t="inlineStr">
@@ -21608,7 +21608,7 @@
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>Gilthead seabream</t>
+          <t>Silver barb</t>
         </is>
       </c>
       <c r="B342" t="inlineStr">
@@ -21663,14 +21663,14 @@
       </c>
       <c r="R342" t="inlineStr">
         <is>
-          <t>PA based on AGRIBALYSE</t>
+          <t>Poore&amp;Nemecek</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>Mediterranean bass</t>
+          <t>Trout</t>
         </is>
       </c>
       <c r="B343" t="inlineStr">
@@ -21725,14 +21725,14 @@
       </c>
       <c r="R343" t="inlineStr">
         <is>
-          <t>PA based on AGRIBALYSE</t>
+          <t>Poore&amp;Nemecek</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>Turbot</t>
+          <t>Gilthead seabream</t>
         </is>
       </c>
       <c r="B344" t="inlineStr">
@@ -21794,131 +21794,131 @@
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>Amazon river prawn</t>
+          <t>Mediterranean bass</t>
         </is>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Crustaceans (farmed)</t>
+          <t>Fish (farmed)</t>
         </is>
       </c>
       <c r="C345" t="n">
-        <v>10633</v>
+        <v>45223</v>
       </c>
       <c r="D345" t="n">
-        <v>1.197</v>
+        <v>2.67</v>
       </c>
       <c r="E345" t="n">
-        <v>0.232</v>
+        <v>0.708</v>
       </c>
       <c r="F345" t="n">
         <v>0</v>
       </c>
       <c r="G345" t="n">
-        <v>0.206</v>
+        <v>0.534</v>
       </c>
       <c r="H345" t="n">
-        <v>2.51</v>
+        <v>0.819</v>
       </c>
       <c r="I345" t="n">
-        <v>8.379</v>
+        <v>3.598</v>
       </c>
       <c r="J345" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K345" t="n">
-        <v>0.206</v>
+        <v>0.111</v>
       </c>
       <c r="L345" t="n">
-        <v>0.334</v>
+        <v>0.061</v>
       </c>
       <c r="M345" t="n">
-        <v>0.219</v>
+        <v>0.04</v>
       </c>
       <c r="N345" t="n">
-        <v>0.05977</v>
+        <v>0.025</v>
       </c>
       <c r="O345" t="n">
-        <v>0.09787</v>
+        <v>0.09207</v>
       </c>
       <c r="P345" t="n">
-        <v>1394</v>
+        <v>1315</v>
       </c>
       <c r="Q345" t="n">
-        <v>50685</v>
+        <v>13691</v>
       </c>
       <c r="R345" t="inlineStr">
         <is>
-          <t>Poore&amp;Nemecek</t>
+          <t>PA based on AGRIBALYSE</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>Giant giver prawn</t>
+          <t>Turbot</t>
         </is>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Crustaceans (farmed)</t>
+          <t>Fish (farmed)</t>
         </is>
       </c>
       <c r="C346" t="n">
-        <v>10633</v>
+        <v>45223</v>
       </c>
       <c r="D346" t="n">
-        <v>1.197</v>
+        <v>2.67</v>
       </c>
       <c r="E346" t="n">
-        <v>0.232</v>
+        <v>0.708</v>
       </c>
       <c r="F346" t="n">
         <v>0</v>
       </c>
       <c r="G346" t="n">
-        <v>0.206</v>
+        <v>0.534</v>
       </c>
       <c r="H346" t="n">
-        <v>2.51</v>
+        <v>0.819</v>
       </c>
       <c r="I346" t="n">
-        <v>8.379</v>
+        <v>3.598</v>
       </c>
       <c r="J346" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="K346" t="n">
-        <v>0.206</v>
+        <v>0.111</v>
       </c>
       <c r="L346" t="n">
-        <v>0.334</v>
+        <v>0.061</v>
       </c>
       <c r="M346" t="n">
-        <v>0.219</v>
+        <v>0.04</v>
       </c>
       <c r="N346" t="n">
-        <v>0.05977</v>
+        <v>0.025</v>
       </c>
       <c r="O346" t="n">
-        <v>0.09787</v>
+        <v>0.09207</v>
       </c>
       <c r="P346" t="n">
-        <v>1394</v>
+        <v>1315</v>
       </c>
       <c r="Q346" t="n">
-        <v>50685</v>
+        <v>13691</v>
       </c>
       <c r="R346" t="inlineStr">
         <is>
-          <t>Poore&amp;Nemecek</t>
+          <t>PA based on AGRIBALYSE</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>Giant river prawn</t>
+          <t>Amazon river prawn</t>
         </is>
       </c>
       <c r="B347" t="inlineStr">
@@ -21980,7 +21980,7 @@
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>Shrimp</t>
+          <t>Giant giver prawn</t>
         </is>
       </c>
       <c r="B348" t="inlineStr">
@@ -22042,7 +22042,7 @@
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>Tiger prawn</t>
+          <t>Giant river prawn</t>
         </is>
       </c>
       <c r="B349" t="inlineStr">
@@ -22104,7 +22104,7 @@
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>Mussel</t>
+          <t>Shrimp</t>
         </is>
       </c>
       <c r="B350" t="inlineStr">
@@ -22159,14 +22159,14 @@
       </c>
       <c r="R350" t="inlineStr">
         <is>
-          <t>PA based on AGRIBALYSE</t>
+          <t>Poore&amp;Nemecek</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>Lobster</t>
+          <t>Tiger prawn</t>
         </is>
       </c>
       <c r="B351" t="inlineStr">
@@ -22221,14 +22221,14 @@
       </c>
       <c r="R351" t="inlineStr">
         <is>
-          <t>PA based on AGRIBALYSE</t>
+          <t>Poore&amp;Nemecek</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>Crab</t>
+          <t>Mussel</t>
         </is>
       </c>
       <c r="B352" t="inlineStr">
@@ -22290,7 +22290,7 @@
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>Oyster</t>
+          <t>Lobster</t>
         </is>
       </c>
       <c r="B353" t="inlineStr">
@@ -22352,7 +22352,7 @@
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>Snails</t>
+          <t>Crab</t>
         </is>
       </c>
       <c r="B354" t="inlineStr">
@@ -22414,120 +22414,120 @@
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>Cereals</t>
+          <t>Oyster</t>
         </is>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Cereals &amp; Oilcrops Misc.</t>
+          <t>Crustaceans (farmed)</t>
         </is>
       </c>
       <c r="C355" t="n">
-        <v>97562</v>
+        <v>10633</v>
       </c>
       <c r="D355" t="n">
-        <v>2.162</v>
+        <v>1.197</v>
       </c>
       <c r="E355" t="n">
-        <v>0.799</v>
+        <v>0.232</v>
       </c>
       <c r="F355" t="n">
         <v>0</v>
       </c>
       <c r="G355" t="n">
-        <v>0.161</v>
+        <v>0.206</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="I355" t="n">
-        <v>0.744</v>
+        <v>8.379</v>
       </c>
       <c r="J355" t="n">
-        <v>0.169</v>
+        <v>0</v>
       </c>
       <c r="K355" t="n">
-        <v>0.109</v>
+        <v>0.206</v>
       </c>
       <c r="L355" t="n">
-        <v>0.081</v>
+        <v>0.334</v>
       </c>
       <c r="M355" t="n">
-        <v>0.049</v>
+        <v>0.219</v>
       </c>
       <c r="N355" t="n">
-        <v>0.01052</v>
+        <v>0.05977</v>
       </c>
       <c r="O355" t="n">
-        <v>0.00569</v>
+        <v>0.09787</v>
       </c>
       <c r="P355" t="n">
-        <v>438</v>
+        <v>1394</v>
       </c>
       <c r="Q355" t="n">
-        <v>22262</v>
+        <v>50685</v>
       </c>
       <c r="R355" t="inlineStr">
         <is>
-          <t>Poore&amp;Nemecek</t>
+          <t>PA based on AGRIBALYSE</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>Pasta</t>
+          <t>Snails</t>
         </is>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Cereals &amp; Oilcrops Misc.</t>
+          <t>Crustaceans (farmed)</t>
         </is>
       </c>
       <c r="C356" t="n">
-        <v>97562</v>
+        <v>10633</v>
       </c>
       <c r="D356" t="n">
-        <v>2.162</v>
+        <v>1.197</v>
       </c>
       <c r="E356" t="n">
-        <v>0.799</v>
+        <v>0.232</v>
       </c>
       <c r="F356" t="n">
         <v>0</v>
       </c>
       <c r="G356" t="n">
-        <v>0.161</v>
+        <v>0.206</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="I356" t="n">
-        <v>0.744</v>
+        <v>8.379</v>
       </c>
       <c r="J356" t="n">
-        <v>0.169</v>
+        <v>0</v>
       </c>
       <c r="K356" t="n">
-        <v>0.109</v>
+        <v>0.206</v>
       </c>
       <c r="L356" t="n">
-        <v>0.081</v>
+        <v>0.334</v>
       </c>
       <c r="M356" t="n">
-        <v>0.049</v>
+        <v>0.219</v>
       </c>
       <c r="N356" t="n">
-        <v>0.01052</v>
+        <v>0.05977</v>
       </c>
       <c r="O356" t="n">
-        <v>0.00569</v>
+        <v>0.09787</v>
       </c>
       <c r="P356" t="n">
-        <v>438</v>
+        <v>1394</v>
       </c>
       <c r="Q356" t="n">
-        <v>22262</v>
+        <v>50685</v>
       </c>
       <c r="R356" t="inlineStr">
         <is>
@@ -22538,7 +22538,7 @@
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>Asian noodles</t>
+          <t>Cereals</t>
         </is>
       </c>
       <c r="B357" t="inlineStr">
@@ -22593,14 +22593,14 @@
       </c>
       <c r="R357" t="inlineStr">
         <is>
-          <t>PA based on AGRIBALYSE</t>
+          <t>Poore&amp;Nemecek</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>Quinoa</t>
+          <t>Pasta</t>
         </is>
       </c>
       <c r="B358" t="inlineStr">
@@ -22662,7 +22662,7 @@
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>Breakfast cereals</t>
+          <t>Asian noodles</t>
         </is>
       </c>
       <c r="B359" t="inlineStr">
@@ -22724,7 +22724,7 @@
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>Cereal bar</t>
+          <t>Quinoa</t>
         </is>
       </c>
       <c r="B360" t="inlineStr">
@@ -22786,7 +22786,7 @@
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>Muesli flakes</t>
+          <t>Breakfast cereals</t>
         </is>
       </c>
       <c r="B361" t="inlineStr">
@@ -22848,7 +22848,7 @@
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>Corn chips or tortilla chips</t>
+          <t>Cereal bar</t>
         </is>
       </c>
       <c r="B362" t="inlineStr">
@@ -22910,7 +22910,7 @@
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>Pop corn</t>
+          <t>Muesli flakes</t>
         </is>
       </c>
       <c r="B363" t="inlineStr">
@@ -22972,7 +22972,7 @@
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>Oilcrops Misc.</t>
+          <t>Corn chips or tortilla chips</t>
         </is>
       </c>
       <c r="B364" t="inlineStr">
@@ -23027,14 +23027,14 @@
       </c>
       <c r="R364" t="inlineStr">
         <is>
-          <t>Poore&amp;Nemecek</t>
+          <t>PA based on AGRIBALYSE</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>Avocado oil</t>
+          <t>Pop corn</t>
         </is>
       </c>
       <c r="B365" t="inlineStr">
@@ -23096,7 +23096,7 @@
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>Hazelnut oil</t>
+          <t>Oilcrops Misc.</t>
         </is>
       </c>
       <c r="B366" t="inlineStr">
@@ -23151,14 +23151,14 @@
       </c>
       <c r="R366" t="inlineStr">
         <is>
-          <t>PA based on AGRIBALYSE</t>
+          <t>Poore&amp;Nemecek</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Linseed oil</t>
+          <t>Avocado oil</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -23220,7 +23220,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>Sesame oil</t>
+          <t>Hazelnut oil</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -23282,7 +23282,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Vegetable fat</t>
+          <t>Linseed oil</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -23344,120 +23344,120 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Oils Misc.</t>
+          <t>Sesame oil</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Oils Misc.</t>
+          <t>Cereals &amp; Oilcrops Misc.</t>
         </is>
       </c>
       <c r="C370" t="n">
-        <v>13404</v>
+        <v>97562</v>
       </c>
       <c r="D370" t="n">
-        <v>8.241</v>
+        <v>2.162</v>
       </c>
       <c r="E370" t="n">
-        <v>1.873</v>
+        <v>0.799</v>
       </c>
       <c r="F370" t="n">
         <v>0</v>
       </c>
       <c r="G370" t="n">
-        <v>2.022</v>
+        <v>0.161</v>
       </c>
       <c r="H370" t="n">
         <v>0</v>
       </c>
       <c r="I370" t="n">
-        <v>2.03</v>
+        <v>0.744</v>
       </c>
       <c r="J370" t="n">
-        <v>0.546</v>
+        <v>0.169</v>
       </c>
       <c r="K370" t="n">
-        <v>0.251</v>
+        <v>0.109</v>
       </c>
       <c r="L370" t="n">
-        <v>0.859</v>
+        <v>0.081</v>
       </c>
       <c r="M370" t="n">
-        <v>0.044</v>
+        <v>0.049</v>
       </c>
       <c r="N370" t="n">
-        <v>0.02145</v>
+        <v>0.01052</v>
       </c>
       <c r="O370" t="n">
-        <v>0.01973</v>
+        <v>0.00569</v>
       </c>
       <c r="P370" t="n">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="Q370" t="n">
-        <v>21573</v>
+        <v>22262</v>
       </c>
       <c r="R370" t="inlineStr">
         <is>
-          <t>Poore&amp;Nemecek</t>
+          <t>PA based on AGRIBALYSE</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Fish oil</t>
+          <t>Vegetable fat</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Oils Misc.</t>
+          <t>Cereals &amp; Oilcrops Misc.</t>
         </is>
       </c>
       <c r="C371" t="n">
-        <v>13404</v>
+        <v>97562</v>
       </c>
       <c r="D371" t="n">
-        <v>8.241</v>
+        <v>2.162</v>
       </c>
       <c r="E371" t="n">
-        <v>1.873</v>
+        <v>0.799</v>
       </c>
       <c r="F371" t="n">
         <v>0</v>
       </c>
       <c r="G371" t="n">
-        <v>2.022</v>
+        <v>0.161</v>
       </c>
       <c r="H371" t="n">
         <v>0</v>
       </c>
       <c r="I371" t="n">
-        <v>2.03</v>
+        <v>0.744</v>
       </c>
       <c r="J371" t="n">
-        <v>0.546</v>
+        <v>0.169</v>
       </c>
       <c r="K371" t="n">
-        <v>0.251</v>
+        <v>0.109</v>
       </c>
       <c r="L371" t="n">
-        <v>0.859</v>
+        <v>0.081</v>
       </c>
       <c r="M371" t="n">
-        <v>0.044</v>
+        <v>0.049</v>
       </c>
       <c r="N371" t="n">
-        <v>0.02145</v>
+        <v>0.01052</v>
       </c>
       <c r="O371" t="n">
-        <v>0.01973</v>
+        <v>0.00569</v>
       </c>
       <c r="P371" t="n">
-        <v>449</v>
+        <v>438</v>
       </c>
       <c r="Q371" t="n">
-        <v>21573</v>
+        <v>22262</v>
       </c>
       <c r="R371" t="inlineStr">
         <is>
@@ -23468,120 +23468,120 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Sweeteners</t>
+          <t>Nutritional yeast</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Sweeteners &amp; Honey</t>
+          <t>Cereals &amp; Oilcrops Misc.</t>
         </is>
       </c>
       <c r="C372" t="n">
-        <v>21564</v>
+        <v>97562</v>
       </c>
       <c r="D372" t="n">
-        <v>0</v>
+        <v>2.162</v>
       </c>
       <c r="E372" t="n">
-        <v>0</v>
+        <v>0.799</v>
       </c>
       <c r="F372" t="n">
         <v>0</v>
       </c>
       <c r="G372" t="n">
-        <v>0</v>
+        <v>0.161</v>
       </c>
       <c r="H372" t="n">
         <v>0</v>
       </c>
       <c r="I372" t="n">
-        <v>0</v>
+        <v>0.744</v>
       </c>
       <c r="J372" t="n">
-        <v>0.139</v>
+        <v>0.169</v>
       </c>
       <c r="K372" t="n">
-        <v>0.706</v>
+        <v>0.109</v>
       </c>
       <c r="L372" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.081</v>
       </c>
       <c r="M372" t="n">
-        <v>0.038</v>
+        <v>0.049</v>
       </c>
       <c r="N372" t="n">
-        <v>0.00746</v>
+        <v>0.01052</v>
       </c>
       <c r="O372" t="n">
-        <v>0.00218</v>
+        <v>0.00569</v>
       </c>
       <c r="P372" t="n">
-        <v>0</v>
+        <v>438</v>
       </c>
       <c r="Q372" t="n">
-        <v>0</v>
+        <v>22262</v>
       </c>
       <c r="R372" t="inlineStr">
         <is>
-          <t>Poore&amp;Nemecek</t>
+          <t>PA based on AGRIBALYSE</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>Honey</t>
+          <t>Oils Misc.</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Sweeteners &amp; Honey</t>
+          <t>Oils Misc.</t>
         </is>
       </c>
       <c r="C373" t="n">
-        <v>21564</v>
+        <v>13404</v>
       </c>
       <c r="D373" t="n">
-        <v>0</v>
+        <v>8.241</v>
       </c>
       <c r="E373" t="n">
-        <v>0</v>
+        <v>1.873</v>
       </c>
       <c r="F373" t="n">
         <v>0</v>
       </c>
       <c r="G373" t="n">
-        <v>0</v>
+        <v>2.022</v>
       </c>
       <c r="H373" t="n">
         <v>0</v>
       </c>
       <c r="I373" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="J373" t="n">
-        <v>0.139</v>
+        <v>0.546</v>
       </c>
       <c r="K373" t="n">
-        <v>0.706</v>
+        <v>0.251</v>
       </c>
       <c r="L373" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.859</v>
       </c>
       <c r="M373" t="n">
-        <v>0.038</v>
+        <v>0.044</v>
       </c>
       <c r="N373" t="n">
-        <v>0.00746</v>
+        <v>0.02145</v>
       </c>
       <c r="O373" t="n">
-        <v>0.00218</v>
+        <v>0.01973</v>
       </c>
       <c r="P373" t="n">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="Q373" t="n">
-        <v>0</v>
+        <v>21573</v>
       </c>
       <c r="R373" t="inlineStr">
         <is>
@@ -23592,58 +23592,58 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>Fructose</t>
+          <t>Fish oil</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Sweeteners &amp; Honey</t>
+          <t>Oils Misc.</t>
         </is>
       </c>
       <c r="C374" t="n">
-        <v>21564</v>
+        <v>13404</v>
       </c>
       <c r="D374" t="n">
-        <v>0</v>
+        <v>8.241</v>
       </c>
       <c r="E374" t="n">
-        <v>0</v>
+        <v>1.873</v>
       </c>
       <c r="F374" t="n">
         <v>0</v>
       </c>
       <c r="G374" t="n">
-        <v>0</v>
+        <v>2.022</v>
       </c>
       <c r="H374" t="n">
         <v>0</v>
       </c>
       <c r="I374" t="n">
-        <v>0</v>
+        <v>2.03</v>
       </c>
       <c r="J374" t="n">
-        <v>0.139</v>
+        <v>0.546</v>
       </c>
       <c r="K374" t="n">
-        <v>0.706</v>
+        <v>0.251</v>
       </c>
       <c r="L374" t="n">
-        <v>0.08699999999999999</v>
+        <v>0.859</v>
       </c>
       <c r="M374" t="n">
-        <v>0.038</v>
+        <v>0.044</v>
       </c>
       <c r="N374" t="n">
-        <v>0.00746</v>
+        <v>0.02145</v>
       </c>
       <c r="O374" t="n">
-        <v>0.00218</v>
+        <v>0.01973</v>
       </c>
       <c r="P374" t="n">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="Q374" t="n">
-        <v>0</v>
+        <v>21573</v>
       </c>
       <c r="R374" t="inlineStr">
         <is>
@@ -23654,7 +23654,7 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Dulce de leche</t>
+          <t>Sweeteners</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
@@ -23709,14 +23709,14 @@
       </c>
       <c r="R375" t="inlineStr">
         <is>
-          <t>PA based on AGRIBALYSE</t>
+          <t>Poore&amp;Nemecek</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>Marmalade</t>
+          <t>Honey</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
@@ -23771,14 +23771,14 @@
       </c>
       <c r="R376" t="inlineStr">
         <is>
-          <t>PA based on AGRIBALYSE</t>
+          <t>Poore&amp;Nemecek</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>Jam</t>
+          <t>Fructose</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -23840,7 +23840,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Milk chocolate</t>
+          <t>Dulce de leche</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -23902,7 +23902,7 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>White chocolate</t>
+          <t>Marmalade</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
@@ -23964,7 +23964,7 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Cookies</t>
+          <t>Jam</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
@@ -24026,7 +24026,7 @@
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>Cakes</t>
+          <t>Milk chocolate</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -24088,7 +24088,7 @@
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>Frozen yogurt</t>
+          <t>White chocolate</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -24150,7 +24150,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>Ice cream</t>
+          <t>Cookies</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -24212,7 +24212,7 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>Candies, all types</t>
+          <t>Cakes</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
@@ -24274,182 +24274,182 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>Stimulants</t>
+          <t>Frozen yogurt</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Stimulants &amp; Spices Misc.</t>
+          <t>Sweeteners &amp; Honey</t>
         </is>
       </c>
       <c r="C385" t="n">
-        <v>13269</v>
+        <v>21564</v>
       </c>
       <c r="D385" t="n">
-        <v>10.019</v>
+        <v>0</v>
       </c>
       <c r="E385" t="n">
-        <v>2.332</v>
+        <v>0</v>
       </c>
       <c r="F385" t="n">
         <v>0</v>
       </c>
       <c r="G385" t="n">
-        <v>6.007</v>
+        <v>0</v>
       </c>
       <c r="H385" t="n">
         <v>0</v>
       </c>
       <c r="I385" t="n">
-        <v>4.938</v>
+        <v>0</v>
       </c>
       <c r="J385" t="n">
-        <v>0.259</v>
+        <v>0.139</v>
       </c>
       <c r="K385" t="n">
-        <v>0.143</v>
+        <v>0.706</v>
       </c>
       <c r="L385" t="n">
-        <v>0.747</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="M385" t="n">
-        <v>0.03</v>
+        <v>0.038</v>
       </c>
       <c r="N385" t="n">
-        <v>0.02419</v>
+        <v>0.00746</v>
       </c>
       <c r="O385" t="n">
-        <v>0.03204</v>
+        <v>0.00218</v>
       </c>
       <c r="P385" t="n">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="Q385" t="n">
-        <v>5486</v>
+        <v>0</v>
       </c>
       <c r="R385" t="inlineStr">
         <is>
-          <t>Poore&amp;Nemecek</t>
+          <t>PA based on AGRIBALYSE</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>Spices Misc.</t>
+          <t>Ice cream</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Stimulants &amp; Spices Misc.</t>
+          <t>Sweeteners &amp; Honey</t>
         </is>
       </c>
       <c r="C386" t="n">
-        <v>13269</v>
+        <v>21564</v>
       </c>
       <c r="D386" t="n">
-        <v>10.019</v>
+        <v>0</v>
       </c>
       <c r="E386" t="n">
-        <v>2.332</v>
+        <v>0</v>
       </c>
       <c r="F386" t="n">
         <v>0</v>
       </c>
       <c r="G386" t="n">
-        <v>6.007</v>
+        <v>0</v>
       </c>
       <c r="H386" t="n">
         <v>0</v>
       </c>
       <c r="I386" t="n">
-        <v>4.938</v>
+        <v>0</v>
       </c>
       <c r="J386" t="n">
-        <v>0.259</v>
+        <v>0.139</v>
       </c>
       <c r="K386" t="n">
-        <v>0.143</v>
+        <v>0.706</v>
       </c>
       <c r="L386" t="n">
-        <v>0.747</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="M386" t="n">
-        <v>0.03</v>
+        <v>0.038</v>
       </c>
       <c r="N386" t="n">
-        <v>0.02419</v>
+        <v>0.00746</v>
       </c>
       <c r="O386" t="n">
-        <v>0.03204</v>
+        <v>0.00218</v>
       </c>
       <c r="P386" t="n">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="Q386" t="n">
-        <v>5486</v>
+        <v>0</v>
       </c>
       <c r="R386" t="inlineStr">
         <is>
-          <t>Poore&amp;Nemecek</t>
+          <t>PA based on AGRIBALYSE</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>Mustard</t>
+          <t>Candies, all types</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Stimulants &amp; Spices Misc.</t>
+          <t>Sweeteners &amp; Honey</t>
         </is>
       </c>
       <c r="C387" t="n">
-        <v>13269</v>
+        <v>21564</v>
       </c>
       <c r="D387" t="n">
-        <v>10.019</v>
+        <v>0</v>
       </c>
       <c r="E387" t="n">
-        <v>2.332</v>
+        <v>0</v>
       </c>
       <c r="F387" t="n">
         <v>0</v>
       </c>
       <c r="G387" t="n">
-        <v>6.007</v>
+        <v>0</v>
       </c>
       <c r="H387" t="n">
         <v>0</v>
       </c>
       <c r="I387" t="n">
-        <v>4.938</v>
+        <v>0</v>
       </c>
       <c r="J387" t="n">
-        <v>0.259</v>
+        <v>0.139</v>
       </c>
       <c r="K387" t="n">
-        <v>0.143</v>
+        <v>0.706</v>
       </c>
       <c r="L387" t="n">
-        <v>0.747</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="M387" t="n">
-        <v>0.03</v>
+        <v>0.038</v>
       </c>
       <c r="N387" t="n">
-        <v>0.02419</v>
+        <v>0.00746</v>
       </c>
       <c r="O387" t="n">
-        <v>0.03204</v>
+        <v>0.00218</v>
       </c>
       <c r="P387" t="n">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="Q387" t="n">
-        <v>5486</v>
+        <v>0</v>
       </c>
       <c r="R387" t="inlineStr">
         <is>
@@ -24460,7 +24460,7 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>Vinegar</t>
+          <t>Stimulants</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
@@ -24515,14 +24515,14 @@
       </c>
       <c r="R388" t="inlineStr">
         <is>
-          <t>PA based on AGRIBALYSE</t>
+          <t>Poore&amp;Nemecek</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>Mayonnaise</t>
+          <t>Spices Misc.</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
@@ -24577,14 +24577,14 @@
       </c>
       <c r="R389" t="inlineStr">
         <is>
-          <t>PA based on AGRIBALYSE</t>
+          <t>Poore&amp;Nemecek</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>Ketchup</t>
+          <t>Mustard</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
@@ -24646,7 +24646,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>Barbecue</t>
+          <t>Vinegar</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -24708,7 +24708,7 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>Aioli sauce</t>
+          <t>Mayonnaise</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
@@ -24770,7 +24770,7 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>Bechamel sauce</t>
+          <t>Ketchup</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
@@ -24832,7 +24832,7 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>Humus</t>
+          <t>Barbecue</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
@@ -24894,7 +24894,7 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>Salad dressing</t>
+          <t>Aioli sauce</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
@@ -24956,7 +24956,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>Soy sauce</t>
+          <t>Bechamel sauce</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -25018,7 +25018,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Sweet and sour sauce</t>
+          <t>Humus</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -25080,7 +25080,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Pesto</t>
+          <t>Salad dressing</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -25142,7 +25142,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>Tartare sauce</t>
+          <t>Soy sauce</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -25204,7 +25204,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Tomato sauce</t>
+          <t>Sweet and sour sauce</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -25266,7 +25266,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>Tomato sauce for pizza base</t>
+          <t>Pesto</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -25328,7 +25328,7 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>Cream sauce for pizza base</t>
+          <t>Tartare sauce</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
@@ -25390,7 +25390,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>Basil</t>
+          <t>Tomate paste</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -25452,7 +25452,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>Chervil</t>
+          <t>Tomato sauce</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -25514,7 +25514,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Coriander</t>
+          <t>Tomato sauce for pizza base</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
@@ -25576,7 +25576,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>Dill</t>
+          <t>Cream sauce for pizza base</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
@@ -25638,7 +25638,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>Garlic</t>
+          <t>Basil</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -25700,7 +25700,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>Horseradish</t>
+          <t>Chervil</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
@@ -25762,7 +25762,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>Marjoram</t>
+          <t>Coriander</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
@@ -25824,7 +25824,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>Mint</t>
+          <t>Dill</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
@@ -25886,7 +25886,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>Molokhia powder</t>
+          <t>Garlic</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
@@ -25948,7 +25948,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>Oregano</t>
+          <t>Horseradish</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -26010,7 +26010,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>Parsley</t>
+          <t>Marjoram</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -26072,7 +26072,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Rosemary</t>
+          <t>Mint</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -26134,7 +26134,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>Sage</t>
+          <t>Molokhia powder</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
@@ -26196,7 +26196,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Savory</t>
+          <t>Oregano</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
@@ -26258,7 +26258,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Tarragon</t>
+          <t>Parsley</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -26320,7 +26320,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Thyme</t>
+          <t>Rosemary</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
@@ -26382,7 +26382,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Gelatine</t>
+          <t>Sage</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
@@ -26444,7 +26444,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>Miso</t>
+          <t>Savory</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
@@ -26506,7 +26506,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>Oat bran</t>
+          <t>Tarragon</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
@@ -26568,7 +26568,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>Rice bran</t>
+          <t>Thyme</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
@@ -26630,7 +26630,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>Sodium carbonate</t>
+          <t>Gelatine</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
@@ -26692,7 +26692,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>Soy lecithin</t>
+          <t>Miso</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
@@ -26754,7 +26754,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Tempeh</t>
+          <t>Oat bran</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -26816,7 +26816,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Salt</t>
+          <t>Rice bran</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -26878,7 +26878,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Sea salt</t>
+          <t>Sodium carbonate</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
@@ -26940,7 +26940,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Black pepper</t>
+          <t>Soy lecithin</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
@@ -27002,7 +27002,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Caraway</t>
+          <t>Tempeh</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -27064,7 +27064,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>Cardamom</t>
+          <t>Salt</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
@@ -27126,7 +27126,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>Cinnamon</t>
+          <t>Sea salt</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
@@ -27188,7 +27188,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Cumin</t>
+          <t>Black pepper</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
@@ -27250,7 +27250,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>Curry powder</t>
+          <t>Caraway</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
@@ -27312,7 +27312,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>Fennel seed</t>
+          <t>Cardamom</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -27374,7 +27374,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>Fenugreek seed</t>
+          <t>Cinnamon</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
@@ -27436,7 +27436,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>Ginger powder</t>
+          <t>Cumin</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
@@ -27498,7 +27498,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>Ginger raw</t>
+          <t>Curry powder</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
@@ -27560,7 +27560,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>Paprika</t>
+          <t>Fennel seed</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -27622,7 +27622,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>Saffron</t>
+          <t>Fenugreek seed</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -27684,7 +27684,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>Turmeric</t>
+          <t>Ginger powder</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -27746,7 +27746,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Vanilla</t>
+          <t>Ginger raw</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
@@ -27808,120 +27808,120 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>Animal Fats</t>
+          <t>Paprika</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Animal Fats</t>
+          <t>Stimulants &amp; Spices Misc.</t>
         </is>
       </c>
       <c r="C442" t="n">
-        <v>10599</v>
+        <v>13269</v>
       </c>
       <c r="D442" t="n">
-        <v>6.858</v>
+        <v>10.019</v>
       </c>
       <c r="E442" t="n">
-        <v>2.046</v>
+        <v>2.332</v>
       </c>
       <c r="F442" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
       <c r="G442" t="n">
-        <v>1.998</v>
+        <v>6.007</v>
       </c>
       <c r="H442" t="n">
-        <v>2.403</v>
+        <v>0</v>
       </c>
       <c r="I442" t="n">
-        <v>1.223</v>
+        <v>4.938</v>
       </c>
       <c r="J442" t="n">
-        <v>0.356</v>
+        <v>0.259</v>
       </c>
       <c r="K442" t="n">
-        <v>0.312</v>
+        <v>0.143</v>
       </c>
       <c r="L442" t="n">
-        <v>0.257</v>
+        <v>0.747</v>
       </c>
       <c r="M442" t="n">
-        <v>0.184</v>
+        <v>0.03</v>
       </c>
       <c r="N442" t="n">
-        <v>0.07424</v>
+        <v>0.02419</v>
       </c>
       <c r="O442" t="n">
-        <v>0.03744</v>
+        <v>0.03204</v>
       </c>
       <c r="P442" t="n">
-        <v>764</v>
+        <v>172</v>
       </c>
       <c r="Q442" t="n">
-        <v>25654</v>
+        <v>5486</v>
       </c>
       <c r="R442" t="inlineStr">
         <is>
-          <t>Poore&amp;Nemecek</t>
+          <t>PA based on AGRIBALYSE</t>
         </is>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Chicken fat</t>
+          <t>Saffron</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Animal Fats</t>
+          <t>Stimulants &amp; Spices Misc.</t>
         </is>
       </c>
       <c r="C443" t="n">
-        <v>10599</v>
+        <v>13269</v>
       </c>
       <c r="D443" t="n">
-        <v>6.858</v>
+        <v>10.019</v>
       </c>
       <c r="E443" t="n">
-        <v>2.046</v>
+        <v>2.332</v>
       </c>
       <c r="F443" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
       <c r="G443" t="n">
-        <v>1.998</v>
+        <v>6.007</v>
       </c>
       <c r="H443" t="n">
-        <v>2.403</v>
+        <v>0</v>
       </c>
       <c r="I443" t="n">
-        <v>1.223</v>
+        <v>4.938</v>
       </c>
       <c r="J443" t="n">
-        <v>0.356</v>
+        <v>0.259</v>
       </c>
       <c r="K443" t="n">
-        <v>0.312</v>
+        <v>0.143</v>
       </c>
       <c r="L443" t="n">
-        <v>0.257</v>
+        <v>0.747</v>
       </c>
       <c r="M443" t="n">
-        <v>0.184</v>
+        <v>0.03</v>
       </c>
       <c r="N443" t="n">
-        <v>0.07424</v>
+        <v>0.02419</v>
       </c>
       <c r="O443" t="n">
-        <v>0.03744</v>
+        <v>0.03204</v>
       </c>
       <c r="P443" t="n">
-        <v>764</v>
+        <v>172</v>
       </c>
       <c r="Q443" t="n">
-        <v>25654</v>
+        <v>5486</v>
       </c>
       <c r="R443" t="inlineStr">
         <is>
@@ -27932,58 +27932,58 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>Duck fat</t>
+          <t>Turmeric</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Animal Fats</t>
+          <t>Stimulants &amp; Spices Misc.</t>
         </is>
       </c>
       <c r="C444" t="n">
-        <v>10599</v>
+        <v>13269</v>
       </c>
       <c r="D444" t="n">
-        <v>6.858</v>
+        <v>10.019</v>
       </c>
       <c r="E444" t="n">
-        <v>2.046</v>
+        <v>2.332</v>
       </c>
       <c r="F444" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
       <c r="G444" t="n">
-        <v>1.998</v>
+        <v>6.007</v>
       </c>
       <c r="H444" t="n">
-        <v>2.403</v>
+        <v>0</v>
       </c>
       <c r="I444" t="n">
-        <v>1.223</v>
+        <v>4.938</v>
       </c>
       <c r="J444" t="n">
-        <v>0.356</v>
+        <v>0.259</v>
       </c>
       <c r="K444" t="n">
-        <v>0.312</v>
+        <v>0.143</v>
       </c>
       <c r="L444" t="n">
-        <v>0.257</v>
+        <v>0.747</v>
       </c>
       <c r="M444" t="n">
-        <v>0.184</v>
+        <v>0.03</v>
       </c>
       <c r="N444" t="n">
-        <v>0.07424</v>
+        <v>0.02419</v>
       </c>
       <c r="O444" t="n">
-        <v>0.03744</v>
+        <v>0.03204</v>
       </c>
       <c r="P444" t="n">
-        <v>764</v>
+        <v>172</v>
       </c>
       <c r="Q444" t="n">
-        <v>25654</v>
+        <v>5486</v>
       </c>
       <c r="R444" t="inlineStr">
         <is>
@@ -27994,58 +27994,58 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>Goose fat</t>
+          <t>Vanilla</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Animal Fats</t>
+          <t>Stimulants &amp; Spices Misc.</t>
         </is>
       </c>
       <c r="C445" t="n">
-        <v>10599</v>
+        <v>13269</v>
       </c>
       <c r="D445" t="n">
-        <v>6.858</v>
+        <v>10.019</v>
       </c>
       <c r="E445" t="n">
-        <v>2.046</v>
+        <v>2.332</v>
       </c>
       <c r="F445" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
       <c r="G445" t="n">
-        <v>1.998</v>
+        <v>6.007</v>
       </c>
       <c r="H445" t="n">
-        <v>2.403</v>
+        <v>0</v>
       </c>
       <c r="I445" t="n">
-        <v>1.223</v>
+        <v>4.938</v>
       </c>
       <c r="J445" t="n">
-        <v>0.356</v>
+        <v>0.259</v>
       </c>
       <c r="K445" t="n">
-        <v>0.312</v>
+        <v>0.143</v>
       </c>
       <c r="L445" t="n">
-        <v>0.257</v>
+        <v>0.747</v>
       </c>
       <c r="M445" t="n">
-        <v>0.184</v>
+        <v>0.03</v>
       </c>
       <c r="N445" t="n">
-        <v>0.07424</v>
+        <v>0.02419</v>
       </c>
       <c r="O445" t="n">
-        <v>0.03744</v>
+        <v>0.03204</v>
       </c>
       <c r="P445" t="n">
-        <v>764</v>
+        <v>172</v>
       </c>
       <c r="Q445" t="n">
-        <v>25654</v>
+        <v>5486</v>
       </c>
       <c r="R445" t="inlineStr">
         <is>
@@ -28056,58 +28056,58 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Lard or pork fat</t>
+          <t>Broth vegetables</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Animal Fats</t>
+          <t>Stimulants &amp; Spices Misc.</t>
         </is>
       </c>
       <c r="C446" t="n">
-        <v>10599</v>
+        <v>13269</v>
       </c>
       <c r="D446" t="n">
-        <v>6.858</v>
+        <v>10.019</v>
       </c>
       <c r="E446" t="n">
-        <v>2.046</v>
+        <v>2.332</v>
       </c>
       <c r="F446" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
       <c r="G446" t="n">
-        <v>1.998</v>
+        <v>6.007</v>
       </c>
       <c r="H446" t="n">
-        <v>2.403</v>
+        <v>0</v>
       </c>
       <c r="I446" t="n">
-        <v>1.223</v>
+        <v>4.938</v>
       </c>
       <c r="J446" t="n">
-        <v>0.356</v>
+        <v>0.259</v>
       </c>
       <c r="K446" t="n">
-        <v>0.312</v>
+        <v>0.143</v>
       </c>
       <c r="L446" t="n">
-        <v>0.257</v>
+        <v>0.747</v>
       </c>
       <c r="M446" t="n">
-        <v>0.184</v>
+        <v>0.03</v>
       </c>
       <c r="N446" t="n">
-        <v>0.07424</v>
+        <v>0.02419</v>
       </c>
       <c r="O446" t="n">
-        <v>0.03744</v>
+        <v>0.03204</v>
       </c>
       <c r="P446" t="n">
-        <v>764</v>
+        <v>172</v>
       </c>
       <c r="Q446" t="n">
-        <v>25654</v>
+        <v>5486</v>
       </c>
       <c r="R446" t="inlineStr">
         <is>
@@ -28118,58 +28118,58 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Turkey fat</t>
+          <t>Broth beef</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Animal Fats</t>
+          <t>Stimulants &amp; Spices Misc.</t>
         </is>
       </c>
       <c r="C447" t="n">
-        <v>10599</v>
+        <v>13269</v>
       </c>
       <c r="D447" t="n">
-        <v>6.858</v>
+        <v>10.019</v>
       </c>
       <c r="E447" t="n">
-        <v>2.046</v>
+        <v>2.332</v>
       </c>
       <c r="F447" t="n">
-        <v>0.024</v>
+        <v>0</v>
       </c>
       <c r="G447" t="n">
-        <v>1.998</v>
+        <v>6.007</v>
       </c>
       <c r="H447" t="n">
-        <v>2.403</v>
+        <v>0</v>
       </c>
       <c r="I447" t="n">
-        <v>1.223</v>
+        <v>4.938</v>
       </c>
       <c r="J447" t="n">
-        <v>0.356</v>
+        <v>0.259</v>
       </c>
       <c r="K447" t="n">
-        <v>0.312</v>
+        <v>0.143</v>
       </c>
       <c r="L447" t="n">
-        <v>0.257</v>
+        <v>0.747</v>
       </c>
       <c r="M447" t="n">
-        <v>0.184</v>
+        <v>0.03</v>
       </c>
       <c r="N447" t="n">
-        <v>0.07424</v>
+        <v>0.02419</v>
       </c>
       <c r="O447" t="n">
-        <v>0.03744</v>
+        <v>0.03204</v>
       </c>
       <c r="P447" t="n">
-        <v>764</v>
+        <v>172</v>
       </c>
       <c r="Q447" t="n">
-        <v>25654</v>
+        <v>5486</v>
       </c>
       <c r="R447" t="inlineStr">
         <is>
@@ -28180,120 +28180,120 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>Buffalo</t>
+          <t>Broth poultry</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Buffalo</t>
+          <t>Stimulants &amp; Spices Misc.</t>
         </is>
       </c>
       <c r="C448" t="n">
-        <v>6618</v>
+        <v>13269</v>
       </c>
       <c r="D448" t="n">
-        <v>15.963</v>
+        <v>10.019</v>
       </c>
       <c r="E448" t="n">
-        <v>3.713</v>
+        <v>2.332</v>
       </c>
       <c r="F448" t="n">
-        <v>100.688</v>
+        <v>0</v>
       </c>
       <c r="G448" t="n">
-        <v>9.569000000000001</v>
+        <v>6.007</v>
       </c>
       <c r="H448" t="n">
-        <v>2.153</v>
+        <v>0</v>
       </c>
       <c r="I448" t="n">
-        <v>29.044</v>
+        <v>4.938</v>
       </c>
       <c r="J448" t="n">
-        <v>1.199</v>
+        <v>0.259</v>
       </c>
       <c r="K448" t="n">
-        <v>0.38</v>
+        <v>0.143</v>
       </c>
       <c r="L448" t="n">
-        <v>0.256</v>
+        <v>0.747</v>
       </c>
       <c r="M448" t="n">
-        <v>0.172</v>
+        <v>0.03</v>
       </c>
       <c r="N448" t="n">
-        <v>0.19809</v>
+        <v>0.02419</v>
       </c>
       <c r="O448" t="n">
-        <v>0.19116</v>
+        <v>0.03204</v>
       </c>
       <c r="P448" t="n">
-        <v>1211</v>
+        <v>172</v>
       </c>
       <c r="Q448" t="n">
-        <v>44810</v>
+        <v>5486</v>
       </c>
       <c r="R448" t="inlineStr">
         <is>
-          <t>Poore&amp;Nemecek</t>
+          <t>PA based on AGRIBALYSE</t>
         </is>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>Butter</t>
+          <t>Animal Fats</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Butter, Cream &amp; Ghee</t>
+          <t>Animal Fats</t>
         </is>
       </c>
       <c r="C449" t="n">
-        <v>12066</v>
+        <v>10599</v>
       </c>
       <c r="D449" t="n">
-        <v>1.327</v>
+        <v>6.858</v>
       </c>
       <c r="E449" t="n">
-        <v>0.402</v>
+        <v>2.046</v>
       </c>
       <c r="F449" t="n">
-        <v>6.275</v>
+        <v>0.024</v>
       </c>
       <c r="G449" t="n">
-        <v>0.495</v>
+        <v>1.998</v>
       </c>
       <c r="H449" t="n">
-        <v>0.236</v>
+        <v>2.403</v>
       </c>
       <c r="I449" t="n">
-        <v>1.458</v>
+        <v>1.223</v>
       </c>
       <c r="J449" t="n">
-        <v>0.149</v>
+        <v>0.356</v>
       </c>
       <c r="K449" t="n">
-        <v>0.09</v>
+        <v>0.312</v>
       </c>
       <c r="L449" t="n">
-        <v>0.097</v>
+        <v>0.257</v>
       </c>
       <c r="M449" t="n">
-        <v>0.256</v>
+        <v>0.184</v>
       </c>
       <c r="N449" t="n">
-        <v>0.01766</v>
+        <v>0.07424</v>
       </c>
       <c r="O449" t="n">
-        <v>0.009339999999999999</v>
+        <v>0.03744</v>
       </c>
       <c r="P449" t="n">
-        <v>533</v>
+        <v>764</v>
       </c>
       <c r="Q449" t="n">
-        <v>16951</v>
+        <v>25654</v>
       </c>
       <c r="R449" t="inlineStr">
         <is>
@@ -28304,244 +28304,244 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Cream</t>
+          <t>Chicken fat</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Butter, Cream &amp; Ghee</t>
+          <t>Animal Fats</t>
         </is>
       </c>
       <c r="C450" t="n">
-        <v>12066</v>
+        <v>10599</v>
       </c>
       <c r="D450" t="n">
-        <v>1.327</v>
+        <v>6.858</v>
       </c>
       <c r="E450" t="n">
-        <v>0.402</v>
+        <v>2.046</v>
       </c>
       <c r="F450" t="n">
-        <v>6.275</v>
+        <v>0.024</v>
       </c>
       <c r="G450" t="n">
-        <v>0.495</v>
+        <v>1.998</v>
       </c>
       <c r="H450" t="n">
-        <v>0.236</v>
+        <v>2.403</v>
       </c>
       <c r="I450" t="n">
-        <v>1.458</v>
+        <v>1.223</v>
       </c>
       <c r="J450" t="n">
-        <v>0.149</v>
+        <v>0.356</v>
       </c>
       <c r="K450" t="n">
-        <v>0.09</v>
+        <v>0.312</v>
       </c>
       <c r="L450" t="n">
-        <v>0.097</v>
+        <v>0.257</v>
       </c>
       <c r="M450" t="n">
-        <v>0.256</v>
+        <v>0.184</v>
       </c>
       <c r="N450" t="n">
-        <v>0.01766</v>
+        <v>0.07424</v>
       </c>
       <c r="O450" t="n">
-        <v>0.009339999999999999</v>
+        <v>0.03744</v>
       </c>
       <c r="P450" t="n">
-        <v>533</v>
+        <v>764</v>
       </c>
       <c r="Q450" t="n">
-        <v>16951</v>
+        <v>25654</v>
       </c>
       <c r="R450" t="inlineStr">
         <is>
-          <t>Poore&amp;Nemecek</t>
+          <t>PA based on AGRIBALYSE</t>
         </is>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>Ghee</t>
+          <t>Duck fat</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Butter, Cream &amp; Ghee</t>
+          <t>Animal Fats</t>
         </is>
       </c>
       <c r="C451" t="n">
-        <v>12066</v>
+        <v>10599</v>
       </c>
       <c r="D451" t="n">
-        <v>1.327</v>
+        <v>6.858</v>
       </c>
       <c r="E451" t="n">
-        <v>0.402</v>
+        <v>2.046</v>
       </c>
       <c r="F451" t="n">
-        <v>6.275</v>
+        <v>0.024</v>
       </c>
       <c r="G451" t="n">
-        <v>0.495</v>
+        <v>1.998</v>
       </c>
       <c r="H451" t="n">
-        <v>0.236</v>
+        <v>2.403</v>
       </c>
       <c r="I451" t="n">
-        <v>1.458</v>
+        <v>1.223</v>
       </c>
       <c r="J451" t="n">
-        <v>0.149</v>
+        <v>0.356</v>
       </c>
       <c r="K451" t="n">
-        <v>0.09</v>
+        <v>0.312</v>
       </c>
       <c r="L451" t="n">
-        <v>0.097</v>
+        <v>0.257</v>
       </c>
       <c r="M451" t="n">
-        <v>0.256</v>
+        <v>0.184</v>
       </c>
       <c r="N451" t="n">
-        <v>0.01766</v>
+        <v>0.07424</v>
       </c>
       <c r="O451" t="n">
-        <v>0.009339999999999999</v>
+        <v>0.03744</v>
       </c>
       <c r="P451" t="n">
-        <v>533</v>
+        <v>764</v>
       </c>
       <c r="Q451" t="n">
-        <v>16951</v>
+        <v>25654</v>
       </c>
       <c r="R451" t="inlineStr">
         <is>
-          <t>Poore&amp;Nemecek</t>
+          <t>PA based on AGRIBALYSE</t>
         </is>
       </c>
     </row>
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Fish &amp; Crustaceans (capture)</t>
+          <t>Goose fat</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Fish &amp; Crustaceans (capture)</t>
+          <t>Animal Fats</t>
         </is>
       </c>
       <c r="C452" t="n">
-        <v>72347</v>
+        <v>10599</v>
       </c>
       <c r="D452" t="n">
-        <v>0</v>
+        <v>6.858</v>
       </c>
       <c r="E452" t="n">
-        <v>0</v>
+        <v>2.046</v>
       </c>
       <c r="F452" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="G452" t="n">
-        <v>0</v>
+        <v>1.998</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2.403</v>
       </c>
       <c r="I452" t="n">
-        <v>2.443</v>
+        <v>1.223</v>
       </c>
       <c r="J452" t="n">
-        <v>0.014</v>
+        <v>0.356</v>
       </c>
       <c r="K452" t="n">
-        <v>0.138</v>
+        <v>0.312</v>
       </c>
       <c r="L452" t="n">
-        <v>0.14</v>
+        <v>0.257</v>
       </c>
       <c r="M452" t="n">
-        <v>0.092</v>
+        <v>0.184</v>
       </c>
       <c r="N452" t="n">
-        <v>0.04108</v>
+        <v>0.07424</v>
       </c>
       <c r="O452" t="n">
-        <v>0.00504</v>
+        <v>0.03744</v>
       </c>
       <c r="P452" t="n">
-        <v>4</v>
+        <v>764</v>
       </c>
       <c r="Q452" t="n">
-        <v>4</v>
+        <v>25654</v>
       </c>
       <c r="R452" t="inlineStr">
         <is>
-          <t>Poore&amp;Nemecek</t>
+          <t>PA based on AGRIBALYSE</t>
         </is>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Alaska pollock</t>
+          <t>Lard or pork fat</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Fish &amp; Crustaceans (capture)</t>
+          <t>Animal Fats</t>
         </is>
       </c>
       <c r="C453" t="n">
-        <v>72347</v>
+        <v>10599</v>
       </c>
       <c r="D453" t="n">
-        <v>0</v>
+        <v>6.858</v>
       </c>
       <c r="E453" t="n">
-        <v>0</v>
+        <v>2.046</v>
       </c>
       <c r="F453" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="G453" t="n">
-        <v>0</v>
+        <v>1.998</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2.403</v>
       </c>
       <c r="I453" t="n">
-        <v>2.443</v>
+        <v>1.223</v>
       </c>
       <c r="J453" t="n">
-        <v>0.014</v>
+        <v>0.356</v>
       </c>
       <c r="K453" t="n">
-        <v>0.138</v>
+        <v>0.312</v>
       </c>
       <c r="L453" t="n">
-        <v>0.14</v>
+        <v>0.257</v>
       </c>
       <c r="M453" t="n">
-        <v>0.092</v>
+        <v>0.184</v>
       </c>
       <c r="N453" t="n">
-        <v>0.04108</v>
+        <v>0.07424</v>
       </c>
       <c r="O453" t="n">
-        <v>0.00504</v>
+        <v>0.03744</v>
       </c>
       <c r="P453" t="n">
-        <v>4</v>
+        <v>764</v>
       </c>
       <c r="Q453" t="n">
-        <v>4</v>
+        <v>25654</v>
       </c>
       <c r="R453" t="inlineStr">
         <is>
@@ -28552,58 +28552,58 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>Albacore</t>
+          <t>Turkey fat</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Fish &amp; Crustaceans (capture)</t>
+          <t>Animal Fats</t>
         </is>
       </c>
       <c r="C454" t="n">
-        <v>72347</v>
+        <v>10599</v>
       </c>
       <c r="D454" t="n">
-        <v>0</v>
+        <v>6.858</v>
       </c>
       <c r="E454" t="n">
-        <v>0</v>
+        <v>2.046</v>
       </c>
       <c r="F454" t="n">
-        <v>0</v>
+        <v>0.024</v>
       </c>
       <c r="G454" t="n">
-        <v>0</v>
+        <v>1.998</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2.403</v>
       </c>
       <c r="I454" t="n">
-        <v>2.443</v>
+        <v>1.223</v>
       </c>
       <c r="J454" t="n">
-        <v>0.014</v>
+        <v>0.356</v>
       </c>
       <c r="K454" t="n">
-        <v>0.138</v>
+        <v>0.312</v>
       </c>
       <c r="L454" t="n">
-        <v>0.14</v>
+        <v>0.257</v>
       </c>
       <c r="M454" t="n">
-        <v>0.092</v>
+        <v>0.184</v>
       </c>
       <c r="N454" t="n">
-        <v>0.04108</v>
+        <v>0.07424</v>
       </c>
       <c r="O454" t="n">
-        <v>0.00504</v>
+        <v>0.03744</v>
       </c>
       <c r="P454" t="n">
-        <v>4</v>
+        <v>764</v>
       </c>
       <c r="Q454" t="n">
-        <v>4</v>
+        <v>25654</v>
       </c>
       <c r="R454" t="inlineStr">
         <is>
@@ -28614,255 +28614,255 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>American bass</t>
+          <t>Buffalo</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Fish &amp; Crustaceans (capture)</t>
+          <t>Buffalo</t>
         </is>
       </c>
       <c r="C455" t="n">
-        <v>72347</v>
+        <v>6618</v>
       </c>
       <c r="D455" t="n">
-        <v>0</v>
+        <v>15.963</v>
       </c>
       <c r="E455" t="n">
-        <v>0</v>
+        <v>3.713</v>
       </c>
       <c r="F455" t="n">
-        <v>0</v>
+        <v>100.688</v>
       </c>
       <c r="G455" t="n">
-        <v>0</v>
+        <v>9.569000000000001</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2.153</v>
       </c>
       <c r="I455" t="n">
-        <v>2.443</v>
+        <v>29.044</v>
       </c>
       <c r="J455" t="n">
-        <v>0.014</v>
+        <v>1.199</v>
       </c>
       <c r="K455" t="n">
-        <v>0.138</v>
+        <v>0.38</v>
       </c>
       <c r="L455" t="n">
-        <v>0.14</v>
+        <v>0.256</v>
       </c>
       <c r="M455" t="n">
-        <v>0.092</v>
+        <v>0.172</v>
       </c>
       <c r="N455" t="n">
-        <v>0.04108</v>
+        <v>0.19809</v>
       </c>
       <c r="O455" t="n">
-        <v>0.00504</v>
+        <v>0.19116</v>
       </c>
       <c r="P455" t="n">
-        <v>4</v>
+        <v>1211</v>
       </c>
       <c r="Q455" t="n">
-        <v>4</v>
+        <v>44810</v>
       </c>
       <c r="R455" t="inlineStr">
         <is>
-          <t>PA based on AGRIBALYSE</t>
+          <t>Poore&amp;Nemecek</t>
         </is>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Sea scallop</t>
+          <t>Butter</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Fish &amp; Crustaceans (capture)</t>
+          <t>Butter, Cream &amp; Ghee</t>
         </is>
       </c>
       <c r="C456" t="n">
-        <v>72347</v>
+        <v>12066</v>
       </c>
       <c r="D456" t="n">
-        <v>0</v>
+        <v>1.327</v>
       </c>
       <c r="E456" t="n">
-        <v>0</v>
+        <v>0.402</v>
       </c>
       <c r="F456" t="n">
-        <v>0</v>
+        <v>6.275</v>
       </c>
       <c r="G456" t="n">
-        <v>0</v>
+        <v>0.495</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>0.236</v>
       </c>
       <c r="I456" t="n">
-        <v>2.443</v>
+        <v>1.458</v>
       </c>
       <c r="J456" t="n">
-        <v>0.014</v>
+        <v>0.149</v>
       </c>
       <c r="K456" t="n">
-        <v>0.138</v>
+        <v>0.09</v>
       </c>
       <c r="L456" t="n">
-        <v>0.14</v>
+        <v>0.097</v>
       </c>
       <c r="M456" t="n">
-        <v>0.092</v>
+        <v>0.256</v>
       </c>
       <c r="N456" t="n">
-        <v>0.04108</v>
+        <v>0.01766</v>
       </c>
       <c r="O456" t="n">
-        <v>0.00504</v>
+        <v>0.009339999999999999</v>
       </c>
       <c r="P456" t="n">
-        <v>4</v>
+        <v>533</v>
       </c>
       <c r="Q456" t="n">
-        <v>4</v>
+        <v>16951</v>
       </c>
       <c r="R456" t="inlineStr">
         <is>
-          <t>PA based on AGRIBALYSE</t>
+          <t>Poore&amp;Nemecek</t>
         </is>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>Anchovy</t>
+          <t>Cream</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Fish &amp; Crustaceans (capture)</t>
+          <t>Butter, Cream &amp; Ghee</t>
         </is>
       </c>
       <c r="C457" t="n">
-        <v>72347</v>
+        <v>12066</v>
       </c>
       <c r="D457" t="n">
-        <v>0</v>
+        <v>1.327</v>
       </c>
       <c r="E457" t="n">
-        <v>0</v>
+        <v>0.402</v>
       </c>
       <c r="F457" t="n">
-        <v>0</v>
+        <v>6.275</v>
       </c>
       <c r="G457" t="n">
-        <v>0</v>
+        <v>0.495</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>0.236</v>
       </c>
       <c r="I457" t="n">
-        <v>2.443</v>
+        <v>1.458</v>
       </c>
       <c r="J457" t="n">
-        <v>0.014</v>
+        <v>0.149</v>
       </c>
       <c r="K457" t="n">
-        <v>0.138</v>
+        <v>0.09</v>
       </c>
       <c r="L457" t="n">
-        <v>0.14</v>
+        <v>0.097</v>
       </c>
       <c r="M457" t="n">
-        <v>0.092</v>
+        <v>0.256</v>
       </c>
       <c r="N457" t="n">
-        <v>0.04108</v>
+        <v>0.01766</v>
       </c>
       <c r="O457" t="n">
-        <v>0.00504</v>
+        <v>0.009339999999999999</v>
       </c>
       <c r="P457" t="n">
-        <v>4</v>
+        <v>533</v>
       </c>
       <c r="Q457" t="n">
-        <v>4</v>
+        <v>16951</v>
       </c>
       <c r="R457" t="inlineStr">
         <is>
-          <t>PA based on AGRIBALYSE</t>
+          <t>Poore&amp;Nemecek</t>
         </is>
       </c>
     </row>
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>Anglerfish</t>
+          <t>Ghee</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Fish &amp; Crustaceans (capture)</t>
+          <t>Butter, Cream &amp; Ghee</t>
         </is>
       </c>
       <c r="C458" t="n">
-        <v>72347</v>
+        <v>12066</v>
       </c>
       <c r="D458" t="n">
-        <v>0</v>
+        <v>1.327</v>
       </c>
       <c r="E458" t="n">
-        <v>0</v>
+        <v>0.402</v>
       </c>
       <c r="F458" t="n">
-        <v>0</v>
+        <v>6.275</v>
       </c>
       <c r="G458" t="n">
-        <v>0</v>
+        <v>0.495</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>0.236</v>
       </c>
       <c r="I458" t="n">
-        <v>2.443</v>
+        <v>1.458</v>
       </c>
       <c r="J458" t="n">
-        <v>0.014</v>
+        <v>0.149</v>
       </c>
       <c r="K458" t="n">
-        <v>0.138</v>
+        <v>0.09</v>
       </c>
       <c r="L458" t="n">
-        <v>0.14</v>
+        <v>0.097</v>
       </c>
       <c r="M458" t="n">
-        <v>0.092</v>
+        <v>0.256</v>
       </c>
       <c r="N458" t="n">
-        <v>0.04108</v>
+        <v>0.01766</v>
       </c>
       <c r="O458" t="n">
-        <v>0.00504</v>
+        <v>0.009339999999999999</v>
       </c>
       <c r="P458" t="n">
-        <v>4</v>
+        <v>533</v>
       </c>
       <c r="Q458" t="n">
-        <v>4</v>
+        <v>16951</v>
       </c>
       <c r="R458" t="inlineStr">
         <is>
-          <t>PA based on AGRIBALYSE</t>
+          <t>Poore&amp;Nemecek</t>
         </is>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>Arctic char</t>
+          <t>Fish &amp; Crustaceans (capture)</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -28917,14 +28917,14 @@
       </c>
       <c r="R459" t="inlineStr">
         <is>
-          <t>PA based on AGRIBALYSE</t>
+          <t>Poore&amp;Nemecek</t>
         </is>
       </c>
     </row>
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>Atlantic bass</t>
+          <t>Alaska pollock</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
@@ -28986,7 +28986,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>Atlantic chub mackerel</t>
+          <t>Albacore</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
@@ -29048,7 +29048,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>Atlantic halibut</t>
+          <t>American bass</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
@@ -29110,7 +29110,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>Atlantic herring</t>
+          <t>Sea scallop</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
@@ -29172,7 +29172,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Bigeye scad</t>
+          <t>Anchovy</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
@@ -29234,7 +29234,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>Big-scale sand smelt</t>
+          <t>Anglerfish</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -29296,7 +29296,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>Black seabream</t>
+          <t>Arctic char</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
@@ -29358,7 +29358,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>Blackspot seabream</t>
+          <t>Atlantic bass</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
@@ -29420,7 +29420,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>Blue grenadier</t>
+          <t>Atlantic chub mackerel</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
@@ -29482,7 +29482,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>Blue ling</t>
+          <t>Atlantic halibut</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
@@ -29544,7 +29544,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>Blue shark</t>
+          <t>Atlantic herring</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
@@ -29606,7 +29606,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>Bogue</t>
+          <t>Bigeye scad</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -29668,7 +29668,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>Brown bullhead</t>
+          <t>Big-scale sand smelt</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -29730,7 +29730,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>Brown meagre</t>
+          <t>Black seabream</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -29792,7 +29792,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>Capelin</t>
+          <t>Blackspot seabream</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -29854,7 +29854,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>Cod</t>
+          <t>Blue grenadier</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
@@ -29916,7 +29916,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>Common dab</t>
+          <t>Blue ling</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -29978,7 +29978,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Common dentex</t>
+          <t>Blue shark</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
@@ -30040,7 +30040,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>Common sole</t>
+          <t>Bogue</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
@@ -30102,7 +30102,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>Conger</t>
+          <t>Brown bullhead</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -30164,7 +30164,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>Crab</t>
+          <t>Brown meagre</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
@@ -30226,7 +30226,7 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>Crevalle jack</t>
+          <t>Capelin</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
@@ -30288,7 +30288,7 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>Deep water pink shrimp</t>
+          <t>Cod</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
@@ -30350,7 +30350,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>Pilchard</t>
+          <t>Common dab</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -30412,7 +30412,7 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>Sardine</t>
+          <t>Common dentex</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
@@ -30474,7 +30474,7 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Hake</t>
+          <t>Common sole</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
@@ -30536,7 +30536,7 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>Plaice</t>
+          <t>Conger</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
@@ -30598,7 +30598,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>Garfish</t>
+          <t>Crab</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -30660,7 +30660,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>Golden redfish</t>
+          <t>Crevalle jack</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -30722,7 +30722,7 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>Greenland halibut</t>
+          <t>Deep water pink shrimp</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
@@ -30784,7 +30784,7 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>Grouper</t>
+          <t>Pilchard</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
@@ -30846,7 +30846,7 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>Haddock</t>
+          <t>Sardine</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
@@ -30908,7 +30908,7 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>Wild crab</t>
+          <t>Hake</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
@@ -30970,7 +30970,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Wild mussel</t>
+          <t>Plaice</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -31032,7 +31032,7 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>Wild lobster</t>
+          <t>Garfish</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
@@ -31094,7 +31094,7 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>Wild oyster</t>
+          <t>Golden redfish</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
@@ -31156,7 +31156,7 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>Lemon sole</t>
+          <t>Greenland halibut</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
@@ -31218,7 +31218,7 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>Ling</t>
+          <t>Grouper</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
@@ -31280,7 +31280,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>Megrim</t>
+          <t>Haddock</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -31342,7 +31342,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>Mullet</t>
+          <t>Wild crab</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -31404,7 +31404,7 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>Nile perch</t>
+          <t>Wild mussel</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
@@ -31466,7 +31466,7 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
-          <t>Pollack</t>
+          <t>Wild lobster</t>
         </is>
       </c>
       <c r="B501" t="inlineStr">
@@ -31528,7 +31528,7 @@
     <row r="502">
       <c r="A502" t="inlineStr">
         <is>
-          <t>Pond smelt</t>
+          <t>Wild oyster</t>
         </is>
       </c>
       <c r="B502" t="inlineStr">
@@ -31590,7 +31590,7 @@
     <row r="503">
       <c r="A503" t="inlineStr">
         <is>
-          <t>Ray</t>
+          <t>Lemon sole</t>
         </is>
       </c>
       <c r="B503" t="inlineStr">
@@ -31652,7 +31652,7 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>Red gurnard</t>
+          <t>Ling</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
@@ -31714,7 +31714,7 @@
     <row r="505">
       <c r="A505" t="inlineStr">
         <is>
-          <t>Saithe</t>
+          <t>Megrim</t>
         </is>
       </c>
       <c r="B505" t="inlineStr">
@@ -31776,7 +31776,7 @@
     <row r="506">
       <c r="A506" t="inlineStr">
         <is>
-          <t>Wild snail</t>
+          <t>Mullet</t>
         </is>
       </c>
       <c r="B506" t="inlineStr">
@@ -31838,7 +31838,7 @@
     <row r="507">
       <c r="A507" t="inlineStr">
         <is>
-          <t>Snapper</t>
+          <t>Nile perch</t>
         </is>
       </c>
       <c r="B507" t="inlineStr">
@@ -31900,7 +31900,7 @@
     <row r="508">
       <c r="A508" t="inlineStr">
         <is>
-          <t>Spotted wolffish</t>
+          <t>Pollack</t>
         </is>
       </c>
       <c r="B508" t="inlineStr">
@@ -31962,7 +31962,7 @@
     <row r="509">
       <c r="A509" t="inlineStr">
         <is>
-          <t>Squid</t>
+          <t>Pond smelt</t>
         </is>
       </c>
       <c r="B509" t="inlineStr">
@@ -32024,7 +32024,7 @@
     <row r="510">
       <c r="A510" t="inlineStr">
         <is>
-          <t>Surimi</t>
+          <t>Ray</t>
         </is>
       </c>
       <c r="B510" t="inlineStr">
@@ -32086,7 +32086,7 @@
     <row r="511">
       <c r="A511" t="inlineStr">
         <is>
-          <t>Swordfish</t>
+          <t>Red gurnard</t>
         </is>
       </c>
       <c r="B511" t="inlineStr">
@@ -32148,7 +32148,7 @@
     <row r="512">
       <c r="A512" t="inlineStr">
         <is>
-          <t>Tonguesole</t>
+          <t>Saithe</t>
         </is>
       </c>
       <c r="B512" t="inlineStr">
@@ -32210,7 +32210,7 @@
     <row r="513">
       <c r="A513" t="inlineStr">
         <is>
-          <t>Tub gurnard</t>
+          <t>Wild snail</t>
         </is>
       </c>
       <c r="B513" t="inlineStr">
@@ -32272,7 +32272,7 @@
     <row r="514">
       <c r="A514" t="inlineStr">
         <is>
-          <t>Turbot</t>
+          <t>Snapper</t>
         </is>
       </c>
       <c r="B514" t="inlineStr">
@@ -32334,7 +32334,7 @@
     <row r="515">
       <c r="A515" t="inlineStr">
         <is>
-          <t>Whiting</t>
+          <t>Spotted wolffish</t>
         </is>
       </c>
       <c r="B515" t="inlineStr">
@@ -32396,16 +32396,16 @@
     <row r="516">
       <c r="A516" t="inlineStr">
         <is>
-          <t>Aquatic Plants</t>
+          <t>Squid</t>
         </is>
       </c>
       <c r="B516" t="inlineStr">
         <is>
-          <t>Aquatic Plants</t>
+          <t>Fish &amp; Crustaceans (capture)</t>
         </is>
       </c>
       <c r="C516" t="n">
-        <v>12385</v>
+        <v>72347</v>
       </c>
       <c r="D516" t="n">
         <v>0</v>
@@ -32423,51 +32423,51 @@
         <v>0</v>
       </c>
       <c r="I516" t="n">
-        <v>0</v>
+        <v>2.443</v>
       </c>
       <c r="J516" t="n">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="K516" t="n">
-        <v>0</v>
+        <v>0.138</v>
       </c>
       <c r="L516" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="M516" t="n">
-        <v>0</v>
+        <v>0.092</v>
       </c>
       <c r="N516" t="n">
-        <v>0</v>
+        <v>0.04108</v>
       </c>
       <c r="O516" t="n">
-        <v>0</v>
+        <v>0.00504</v>
       </c>
       <c r="P516" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q516" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R516" t="inlineStr">
         <is>
-          <t>Poore&amp;Nemecek</t>
+          <t>PA based on AGRIBALYSE</t>
         </is>
       </c>
     </row>
     <row r="517">
       <c r="A517" t="inlineStr">
         <is>
-          <t>Seaweed</t>
+          <t>Surimi</t>
         </is>
       </c>
       <c r="B517" t="inlineStr">
         <is>
-          <t>Aquatic Plants</t>
+          <t>Fish &amp; Crustaceans (capture)</t>
         </is>
       </c>
       <c r="C517" t="n">
-        <v>12385</v>
+        <v>72347</v>
       </c>
       <c r="D517" t="n">
         <v>0</v>
@@ -32485,31 +32485,31 @@
         <v>0</v>
       </c>
       <c r="I517" t="n">
-        <v>0</v>
+        <v>2.443</v>
       </c>
       <c r="J517" t="n">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="K517" t="n">
-        <v>0</v>
+        <v>0.138</v>
       </c>
       <c r="L517" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="M517" t="n">
-        <v>0</v>
+        <v>0.092</v>
       </c>
       <c r="N517" t="n">
-        <v>0</v>
+        <v>0.04108</v>
       </c>
       <c r="O517" t="n">
-        <v>0</v>
+        <v>0.00504</v>
       </c>
       <c r="P517" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q517" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R517" t="inlineStr">
         <is>
@@ -32520,16 +32520,16 @@
     <row r="518">
       <c r="A518" t="inlineStr">
         <is>
-          <t>Laver</t>
+          <t>Swordfish</t>
         </is>
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>Aquatic Plants</t>
+          <t>Fish &amp; Crustaceans (capture)</t>
         </is>
       </c>
       <c r="C518" t="n">
-        <v>12385</v>
+        <v>72347</v>
       </c>
       <c r="D518" t="n">
         <v>0</v>
@@ -32547,31 +32547,31 @@
         <v>0</v>
       </c>
       <c r="I518" t="n">
-        <v>0</v>
+        <v>2.443</v>
       </c>
       <c r="J518" t="n">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="K518" t="n">
-        <v>0</v>
+        <v>0.138</v>
       </c>
       <c r="L518" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="M518" t="n">
-        <v>0</v>
+        <v>0.092</v>
       </c>
       <c r="N518" t="n">
-        <v>0</v>
+        <v>0.04108</v>
       </c>
       <c r="O518" t="n">
-        <v>0</v>
+        <v>0.00504</v>
       </c>
       <c r="P518" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q518" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R518" t="inlineStr">
         <is>
@@ -32582,16 +32582,16 @@
     <row r="519">
       <c r="A519" t="inlineStr">
         <is>
-          <t>Wakame</t>
+          <t>Tonguesole</t>
         </is>
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>Aquatic Plants</t>
+          <t>Fish &amp; Crustaceans (capture)</t>
         </is>
       </c>
       <c r="C519" t="n">
-        <v>12385</v>
+        <v>72347</v>
       </c>
       <c r="D519" t="n">
         <v>0</v>
@@ -32609,31 +32609,31 @@
         <v>0</v>
       </c>
       <c r="I519" t="n">
-        <v>0</v>
+        <v>2.443</v>
       </c>
       <c r="J519" t="n">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="K519" t="n">
-        <v>0</v>
+        <v>0.138</v>
       </c>
       <c r="L519" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="M519" t="n">
-        <v>0</v>
+        <v>0.092</v>
       </c>
       <c r="N519" t="n">
-        <v>0</v>
+        <v>0.04108</v>
       </c>
       <c r="O519" t="n">
-        <v>0</v>
+        <v>0.00504</v>
       </c>
       <c r="P519" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q519" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R519" t="inlineStr">
         <is>
@@ -32644,16 +32644,16 @@
     <row r="520">
       <c r="A520" t="inlineStr">
         <is>
-          <t>Sea lettuce</t>
+          <t>Tub gurnard</t>
         </is>
       </c>
       <c r="B520" t="inlineStr">
         <is>
-          <t>Aquatic Plants</t>
+          <t>Fish &amp; Crustaceans (capture)</t>
         </is>
       </c>
       <c r="C520" t="n">
-        <v>12385</v>
+        <v>72347</v>
       </c>
       <c r="D520" t="n">
         <v>0</v>
@@ -32671,31 +32671,31 @@
         <v>0</v>
       </c>
       <c r="I520" t="n">
-        <v>0</v>
+        <v>2.443</v>
       </c>
       <c r="J520" t="n">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="K520" t="n">
-        <v>0</v>
+        <v>0.138</v>
       </c>
       <c r="L520" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="M520" t="n">
-        <v>0</v>
+        <v>0.092</v>
       </c>
       <c r="N520" t="n">
-        <v>0</v>
+        <v>0.04108</v>
       </c>
       <c r="O520" t="n">
-        <v>0</v>
+        <v>0.00504</v>
       </c>
       <c r="P520" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q520" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R520" t="inlineStr">
         <is>
@@ -32706,16 +32706,16 @@
     <row r="521">
       <c r="A521" t="inlineStr">
         <is>
-          <t>Sea thong</t>
+          <t>Turbot</t>
         </is>
       </c>
       <c r="B521" t="inlineStr">
         <is>
-          <t>Aquatic Plants</t>
+          <t>Fish &amp; Crustaceans (capture)</t>
         </is>
       </c>
       <c r="C521" t="n">
-        <v>12385</v>
+        <v>72347</v>
       </c>
       <c r="D521" t="n">
         <v>0</v>
@@ -32733,31 +32733,31 @@
         <v>0</v>
       </c>
       <c r="I521" t="n">
-        <v>0</v>
+        <v>2.443</v>
       </c>
       <c r="J521" t="n">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="K521" t="n">
-        <v>0</v>
+        <v>0.138</v>
       </c>
       <c r="L521" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="M521" t="n">
-        <v>0</v>
+        <v>0.092</v>
       </c>
       <c r="N521" t="n">
-        <v>0</v>
+        <v>0.04108</v>
       </c>
       <c r="O521" t="n">
-        <v>0</v>
+        <v>0.00504</v>
       </c>
       <c r="P521" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q521" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R521" t="inlineStr">
         <is>
@@ -32768,16 +32768,16 @@
     <row r="522">
       <c r="A522" t="inlineStr">
         <is>
-          <t>Spirulina</t>
+          <t>Whiting</t>
         </is>
       </c>
       <c r="B522" t="inlineStr">
         <is>
-          <t>Aquatic Plants</t>
+          <t>Fish &amp; Crustaceans (capture)</t>
         </is>
       </c>
       <c r="C522" t="n">
-        <v>12385</v>
+        <v>72347</v>
       </c>
       <c r="D522" t="n">
         <v>0</v>
@@ -32795,31 +32795,31 @@
         <v>0</v>
       </c>
       <c r="I522" t="n">
-        <v>0</v>
+        <v>2.443</v>
       </c>
       <c r="J522" t="n">
-        <v>0</v>
+        <v>0.014</v>
       </c>
       <c r="K522" t="n">
-        <v>0</v>
+        <v>0.138</v>
       </c>
       <c r="L522" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="M522" t="n">
-        <v>0</v>
+        <v>0.092</v>
       </c>
       <c r="N522" t="n">
-        <v>0</v>
+        <v>0.04108</v>
       </c>
       <c r="O522" t="n">
-        <v>0</v>
+        <v>0.00504</v>
       </c>
       <c r="P522" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q522" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R522" t="inlineStr">
         <is>
@@ -32830,7 +32830,7 @@
     <row r="523">
       <c r="A523" t="inlineStr">
         <is>
-          <t>Tangle</t>
+          <t>Aquatic Plants</t>
         </is>
       </c>
       <c r="B523" t="inlineStr">
@@ -32884,6 +32884,440 @@
         <v>0</v>
       </c>
       <c r="R523" t="inlineStr">
+        <is>
+          <t>Poore&amp;Nemecek</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>Seaweed</t>
+        </is>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>Aquatic Plants</t>
+        </is>
+      </c>
+      <c r="C524" t="n">
+        <v>12385</v>
+      </c>
+      <c r="D524" t="n">
+        <v>0</v>
+      </c>
+      <c r="E524" t="n">
+        <v>0</v>
+      </c>
+      <c r="F524" t="n">
+        <v>0</v>
+      </c>
+      <c r="G524" t="n">
+        <v>0</v>
+      </c>
+      <c r="H524" t="n">
+        <v>0</v>
+      </c>
+      <c r="I524" t="n">
+        <v>0</v>
+      </c>
+      <c r="J524" t="n">
+        <v>0</v>
+      </c>
+      <c r="K524" t="n">
+        <v>0</v>
+      </c>
+      <c r="L524" t="n">
+        <v>0</v>
+      </c>
+      <c r="M524" t="n">
+        <v>0</v>
+      </c>
+      <c r="N524" t="n">
+        <v>0</v>
+      </c>
+      <c r="O524" t="n">
+        <v>0</v>
+      </c>
+      <c r="P524" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q524" t="n">
+        <v>0</v>
+      </c>
+      <c r="R524" t="inlineStr">
+        <is>
+          <t>PA based on AGRIBALYSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>Laver</t>
+        </is>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>Aquatic Plants</t>
+        </is>
+      </c>
+      <c r="C525" t="n">
+        <v>12385</v>
+      </c>
+      <c r="D525" t="n">
+        <v>0</v>
+      </c>
+      <c r="E525" t="n">
+        <v>0</v>
+      </c>
+      <c r="F525" t="n">
+        <v>0</v>
+      </c>
+      <c r="G525" t="n">
+        <v>0</v>
+      </c>
+      <c r="H525" t="n">
+        <v>0</v>
+      </c>
+      <c r="I525" t="n">
+        <v>0</v>
+      </c>
+      <c r="J525" t="n">
+        <v>0</v>
+      </c>
+      <c r="K525" t="n">
+        <v>0</v>
+      </c>
+      <c r="L525" t="n">
+        <v>0</v>
+      </c>
+      <c r="M525" t="n">
+        <v>0</v>
+      </c>
+      <c r="N525" t="n">
+        <v>0</v>
+      </c>
+      <c r="O525" t="n">
+        <v>0</v>
+      </c>
+      <c r="P525" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q525" t="n">
+        <v>0</v>
+      </c>
+      <c r="R525" t="inlineStr">
+        <is>
+          <t>PA based on AGRIBALYSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>Wakame</t>
+        </is>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>Aquatic Plants</t>
+        </is>
+      </c>
+      <c r="C526" t="n">
+        <v>12385</v>
+      </c>
+      <c r="D526" t="n">
+        <v>0</v>
+      </c>
+      <c r="E526" t="n">
+        <v>0</v>
+      </c>
+      <c r="F526" t="n">
+        <v>0</v>
+      </c>
+      <c r="G526" t="n">
+        <v>0</v>
+      </c>
+      <c r="H526" t="n">
+        <v>0</v>
+      </c>
+      <c r="I526" t="n">
+        <v>0</v>
+      </c>
+      <c r="J526" t="n">
+        <v>0</v>
+      </c>
+      <c r="K526" t="n">
+        <v>0</v>
+      </c>
+      <c r="L526" t="n">
+        <v>0</v>
+      </c>
+      <c r="M526" t="n">
+        <v>0</v>
+      </c>
+      <c r="N526" t="n">
+        <v>0</v>
+      </c>
+      <c r="O526" t="n">
+        <v>0</v>
+      </c>
+      <c r="P526" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q526" t="n">
+        <v>0</v>
+      </c>
+      <c r="R526" t="inlineStr">
+        <is>
+          <t>PA based on AGRIBALYSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>Sea lettuce</t>
+        </is>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>Aquatic Plants</t>
+        </is>
+      </c>
+      <c r="C527" t="n">
+        <v>12385</v>
+      </c>
+      <c r="D527" t="n">
+        <v>0</v>
+      </c>
+      <c r="E527" t="n">
+        <v>0</v>
+      </c>
+      <c r="F527" t="n">
+        <v>0</v>
+      </c>
+      <c r="G527" t="n">
+        <v>0</v>
+      </c>
+      <c r="H527" t="n">
+        <v>0</v>
+      </c>
+      <c r="I527" t="n">
+        <v>0</v>
+      </c>
+      <c r="J527" t="n">
+        <v>0</v>
+      </c>
+      <c r="K527" t="n">
+        <v>0</v>
+      </c>
+      <c r="L527" t="n">
+        <v>0</v>
+      </c>
+      <c r="M527" t="n">
+        <v>0</v>
+      </c>
+      <c r="N527" t="n">
+        <v>0</v>
+      </c>
+      <c r="O527" t="n">
+        <v>0</v>
+      </c>
+      <c r="P527" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q527" t="n">
+        <v>0</v>
+      </c>
+      <c r="R527" t="inlineStr">
+        <is>
+          <t>PA based on AGRIBALYSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>Sea thong</t>
+        </is>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>Aquatic Plants</t>
+        </is>
+      </c>
+      <c r="C528" t="n">
+        <v>12385</v>
+      </c>
+      <c r="D528" t="n">
+        <v>0</v>
+      </c>
+      <c r="E528" t="n">
+        <v>0</v>
+      </c>
+      <c r="F528" t="n">
+        <v>0</v>
+      </c>
+      <c r="G528" t="n">
+        <v>0</v>
+      </c>
+      <c r="H528" t="n">
+        <v>0</v>
+      </c>
+      <c r="I528" t="n">
+        <v>0</v>
+      </c>
+      <c r="J528" t="n">
+        <v>0</v>
+      </c>
+      <c r="K528" t="n">
+        <v>0</v>
+      </c>
+      <c r="L528" t="n">
+        <v>0</v>
+      </c>
+      <c r="M528" t="n">
+        <v>0</v>
+      </c>
+      <c r="N528" t="n">
+        <v>0</v>
+      </c>
+      <c r="O528" t="n">
+        <v>0</v>
+      </c>
+      <c r="P528" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q528" t="n">
+        <v>0</v>
+      </c>
+      <c r="R528" t="inlineStr">
+        <is>
+          <t>PA based on AGRIBALYSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>Spirulina</t>
+        </is>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>Aquatic Plants</t>
+        </is>
+      </c>
+      <c r="C529" t="n">
+        <v>12385</v>
+      </c>
+      <c r="D529" t="n">
+        <v>0</v>
+      </c>
+      <c r="E529" t="n">
+        <v>0</v>
+      </c>
+      <c r="F529" t="n">
+        <v>0</v>
+      </c>
+      <c r="G529" t="n">
+        <v>0</v>
+      </c>
+      <c r="H529" t="n">
+        <v>0</v>
+      </c>
+      <c r="I529" t="n">
+        <v>0</v>
+      </c>
+      <c r="J529" t="n">
+        <v>0</v>
+      </c>
+      <c r="K529" t="n">
+        <v>0</v>
+      </c>
+      <c r="L529" t="n">
+        <v>0</v>
+      </c>
+      <c r="M529" t="n">
+        <v>0</v>
+      </c>
+      <c r="N529" t="n">
+        <v>0</v>
+      </c>
+      <c r="O529" t="n">
+        <v>0</v>
+      </c>
+      <c r="P529" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q529" t="n">
+        <v>0</v>
+      </c>
+      <c r="R529" t="inlineStr">
+        <is>
+          <t>PA based on AGRIBALYSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>Tangle</t>
+        </is>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>Aquatic Plants</t>
+        </is>
+      </c>
+      <c r="C530" t="n">
+        <v>12385</v>
+      </c>
+      <c r="D530" t="n">
+        <v>0</v>
+      </c>
+      <c r="E530" t="n">
+        <v>0</v>
+      </c>
+      <c r="F530" t="n">
+        <v>0</v>
+      </c>
+      <c r="G530" t="n">
+        <v>0</v>
+      </c>
+      <c r="H530" t="n">
+        <v>0</v>
+      </c>
+      <c r="I530" t="n">
+        <v>0</v>
+      </c>
+      <c r="J530" t="n">
+        <v>0</v>
+      </c>
+      <c r="K530" t="n">
+        <v>0</v>
+      </c>
+      <c r="L530" t="n">
+        <v>0</v>
+      </c>
+      <c r="M530" t="n">
+        <v>0</v>
+      </c>
+      <c r="N530" t="n">
+        <v>0</v>
+      </c>
+      <c r="O530" t="n">
+        <v>0</v>
+      </c>
+      <c r="P530" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q530" t="n">
+        <v>0</v>
+      </c>
+      <c r="R530" t="inlineStr">
         <is>
           <t>PA based on AGRIBALYSE</t>
         </is>
